--- a/40_Python/20231022_6Nimmt/模型参数.xlsx
+++ b/40_Python/20231022_6Nimmt/模型参数.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repo\Marvin_Haves_Fun_2309\40_Python\20231022_6Nimmt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DE9BEC-491F-4DEE-B9A0-9C49F51DA4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C79B88-C6F3-4489-AFF7-B80EC24A0AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1950" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>model_16.pth</t>
+  </si>
+  <si>
+    <t>model_12.pth</t>
   </si>
 </sst>
 </file>
@@ -4523,7 +4526,7 @@
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5392,13 +5395,58 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="18"/>
+      <c r="A20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="1">
+        <v>54</v>
+      </c>
+      <c r="C20" s="4">
+        <v>12</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" ref="H20" si="4">(B20+1)*C20+(C20+1)*G20</f>
+        <v>673</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2001</v>
+      </c>
+      <c r="L20" s="1">
+        <v>8000</v>
+      </c>
+      <c r="M20" s="1">
+        <v>4</v>
+      </c>
+      <c r="N20" s="2">
+        <v>45389</v>
+      </c>
+      <c r="O20">
+        <v>4.0131730000000001</v>
+      </c>
+      <c r="P20" s="8">
+        <v>0.38844000000000001</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>0.67800000000000005</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
@@ -5660,7 +5708,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="16">
-        <f>A3/2</f>
+        <f t="shared" ref="D3:D42" si="0">A3/2</f>
         <v>6</v>
       </c>
       <c r="E3" s="16">
@@ -5668,7 +5716,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="4">
-        <f>A3/3</f>
+        <f t="shared" ref="F3:F42" si="1">A3/3</f>
         <v>4</v>
       </c>
       <c r="G3" s="4">
@@ -5680,7 +5728,7 @@
         <v>4</v>
       </c>
       <c r="I3" s="15">
-        <f>A3/4</f>
+        <f t="shared" ref="I3:I42" si="2">A3/4</f>
         <v>3</v>
       </c>
       <c r="J3" s="15">
@@ -5688,11 +5736,11 @@
         <v>3</v>
       </c>
       <c r="K3" s="15">
-        <f t="shared" ref="K2:L3" si="0">J3</f>
+        <f t="shared" ref="K3:L3" si="3">J3</f>
         <v>3</v>
       </c>
       <c r="L3" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="M3" s="1">
@@ -5723,54 +5771,54 @@
         <v>54</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" ref="C4:C42" si="1">A4</f>
+        <f t="shared" ref="C4:C42" si="4">A4</f>
         <v>24</v>
       </c>
       <c r="D4" s="16">
-        <f>A4/2</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="E4" s="16">
-        <f t="shared" ref="E4:E67" si="2">D4</f>
+        <f t="shared" ref="E4:E67" si="5">D4</f>
         <v>12</v>
       </c>
       <c r="F4" s="4">
-        <f>A4/3</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" ref="G4:H42" si="3">F4</f>
+        <f t="shared" ref="G4:H42" si="6">F4</f>
         <v>8</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I4" s="15">
-        <f>A4/4</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="J4" s="15">
-        <f t="shared" ref="J4:L42" si="4">I4</f>
+        <f t="shared" ref="J4:L42" si="7">I4</f>
         <v>6</v>
       </c>
       <c r="K4" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="L4" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
       </c>
       <c r="N4" s="6">
-        <f t="shared" ref="N4:N42" si="5">(B4+1)*C4+(C4+1)*M4</f>
+        <f t="shared" ref="N4:N42" si="8">(B4+1)*C4+(C4+1)*M4</f>
         <v>1345</v>
       </c>
       <c r="O4" s="9">
-        <f t="shared" ref="O4:O42" si="6">(B4+1)*D4+(D4+1)*E4+(E4+1)*M4</f>
+        <f t="shared" ref="O4:O42" si="9">(B4+1)*D4+(D4+1)*E4+(E4+1)*M4</f>
         <v>829</v>
       </c>
       <c r="P4" s="9">
@@ -5778,7 +5826,7 @@
         <v>593</v>
       </c>
       <c r="Q4" s="9">
-        <f t="shared" ref="Q4:Q42" si="7">(B4+1)*I4+(I4+1)*J4+(J4+1)*K4+(K4+1)*L4+(L4+1)*M4</f>
+        <f t="shared" ref="Q4:Q42" si="10">(B4+1)*I4+(I4+1)*J4+(J4+1)*K4+(K4+1)*L4+(L4+1)*M4</f>
         <v>463</v>
       </c>
     </row>
@@ -5790,62 +5838,62 @@
         <v>54</v>
       </c>
       <c r="C5" s="4">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="D5" s="16">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E5" s="16">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="D5" s="16">
-        <f>A5/2</f>
-        <v>18</v>
-      </c>
-      <c r="E5" s="16">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="I5" s="15">
         <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="F5" s="4">
-        <f>A5/3</f>
-        <v>12</v>
-      </c>
-      <c r="G5" s="4">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="I5" s="15">
-        <f>A5/4</f>
         <v>9</v>
       </c>
       <c r="J5" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="K5" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="L5" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="M5" s="1">
         <v>1</v>
       </c>
       <c r="N5" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2017</v>
       </c>
       <c r="O5" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1351</v>
       </c>
       <c r="P5" s="9">
-        <f t="shared" ref="P5:P42" si="8">(B5+1)*F5+(F5+1)*G5+(G5+1)*H5+(H5+1)*M5</f>
+        <f t="shared" ref="P5:P42" si="11">(B5+1)*F5+(F5+1)*G5+(G5+1)*H5+(H5+1)*M5</f>
         <v>985</v>
       </c>
       <c r="Q5" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>775</v>
       </c>
     </row>
@@ -5857,62 +5905,62 @@
         <v>54</v>
       </c>
       <c r="C6" s="4">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="D6" s="16">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E6" s="16">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="F6" s="4">
         <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="D6" s="16">
-        <f>A6/2</f>
-        <v>24</v>
-      </c>
-      <c r="E6" s="16">
+        <v>16</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="I6" s="15">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="F6" s="4">
-        <f>A6/3</f>
-        <v>16</v>
-      </c>
-      <c r="G6" s="4">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="H6" s="4">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="I6" s="15">
-        <f>A6/4</f>
         <v>12</v>
       </c>
       <c r="J6" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="K6" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="L6" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="M6" s="1">
         <v>1</v>
       </c>
       <c r="N6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2689</v>
       </c>
       <c r="O6" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1945</v>
       </c>
       <c r="P6" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1441</v>
       </c>
       <c r="Q6" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1141</v>
       </c>
     </row>
@@ -5924,62 +5972,62 @@
         <v>54</v>
       </c>
       <c r="C7" s="4">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="D7" s="16">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="F7" s="4">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="D7" s="16">
-        <f>A7/2</f>
-        <v>30</v>
-      </c>
-      <c r="E7" s="16">
+        <v>20</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="I7" s="15">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="F7" s="4">
-        <f>A7/3</f>
-        <v>20</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="I7" s="15">
-        <f>A7/4</f>
         <v>15</v>
       </c>
       <c r="J7" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="K7" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="L7" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="M7" s="1">
         <v>1</v>
       </c>
       <c r="N7" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3361</v>
       </c>
       <c r="O7" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2611</v>
       </c>
       <c r="P7" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1961</v>
       </c>
       <c r="Q7" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1561</v>
       </c>
     </row>
@@ -5991,62 +6039,62 @@
         <v>54</v>
       </c>
       <c r="C8" s="4">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="D8" s="16">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="D8" s="16">
-        <f>A8/2</f>
-        <v>36</v>
-      </c>
-      <c r="E8" s="16">
+        <v>24</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="I8" s="15">
         <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="F8" s="4">
-        <f>A8/3</f>
-        <v>24</v>
-      </c>
-      <c r="G8" s="4">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="H8" s="4">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="I8" s="15">
-        <f>A8/4</f>
         <v>18</v>
       </c>
       <c r="J8" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="K8" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="L8" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
       </c>
       <c r="N8" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4033</v>
       </c>
       <c r="O8" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3349</v>
       </c>
       <c r="P8" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2545</v>
       </c>
       <c r="Q8" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2035</v>
       </c>
     </row>
@@ -6058,62 +6106,62 @@
         <v>54</v>
       </c>
       <c r="C9" s="4">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="D9" s="16">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="E9" s="16">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="F9" s="4">
         <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="D9" s="16">
-        <f>A9/2</f>
-        <v>42</v>
-      </c>
-      <c r="E9" s="16">
+        <v>28</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="I9" s="15">
         <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="F9" s="4">
-        <f>A9/3</f>
-        <v>28</v>
-      </c>
-      <c r="G9" s="4">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="H9" s="4">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="I9" s="15">
-        <f>A9/4</f>
         <v>21</v>
       </c>
       <c r="J9" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="K9" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="L9" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="M9" s="1">
         <v>1</v>
       </c>
       <c r="N9" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4705</v>
       </c>
       <c r="O9" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4159</v>
       </c>
       <c r="P9" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3193</v>
       </c>
       <c r="Q9" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2563</v>
       </c>
     </row>
@@ -6125,62 +6173,62 @@
         <v>54</v>
       </c>
       <c r="C10" s="4">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="D10" s="16">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="F10" s="4">
         <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="D10" s="16">
-        <f>A10/2</f>
-        <v>48</v>
-      </c>
-      <c r="E10" s="16">
+        <v>32</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="I10" s="15">
         <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="F10" s="4">
-        <f>A10/3</f>
-        <v>32</v>
-      </c>
-      <c r="G10" s="4">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="H10" s="4">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="I10" s="15">
-        <f>A10/4</f>
         <v>24</v>
       </c>
       <c r="J10" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="K10" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="L10" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="M10" s="1">
         <v>1</v>
       </c>
       <c r="N10" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5377</v>
       </c>
       <c r="O10" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5041</v>
       </c>
       <c r="P10" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3905</v>
       </c>
       <c r="Q10" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3145</v>
       </c>
     </row>
@@ -6192,62 +6240,62 @@
         <v>54</v>
       </c>
       <c r="C11" s="4">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="D11" s="16">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="E11" s="16">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="F11" s="4">
         <f t="shared" si="1"/>
-        <v>108</v>
-      </c>
-      <c r="D11" s="16">
-        <f>A11/2</f>
-        <v>54</v>
-      </c>
-      <c r="E11" s="16">
+        <v>36</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="I11" s="15">
         <f t="shared" si="2"/>
-        <v>54</v>
-      </c>
-      <c r="F11" s="4">
-        <f>A11/3</f>
-        <v>36</v>
-      </c>
-      <c r="G11" s="4">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="I11" s="15">
-        <f>A11/4</f>
         <v>27</v>
       </c>
       <c r="J11" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="K11" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="L11" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="M11" s="1">
         <v>1</v>
       </c>
       <c r="N11" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6049</v>
       </c>
       <c r="O11" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5995</v>
       </c>
       <c r="P11" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4681</v>
       </c>
       <c r="Q11" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3781</v>
       </c>
     </row>
@@ -6259,62 +6307,62 @@
         <v>54</v>
       </c>
       <c r="C12" s="4">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="D12" s="16">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E12" s="16">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="F12" s="4">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="D12" s="16">
-        <f>A12/2</f>
-        <v>60</v>
-      </c>
-      <c r="E12" s="16">
+        <v>40</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="I12" s="15">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="F12" s="4">
-        <f>A12/3</f>
-        <v>40</v>
-      </c>
-      <c r="G12" s="4">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="I12" s="15">
-        <f>A12/4</f>
         <v>30</v>
       </c>
       <c r="J12" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="K12" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="L12" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="M12" s="1">
         <v>1</v>
       </c>
       <c r="N12" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6721</v>
       </c>
       <c r="O12" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7021</v>
       </c>
       <c r="P12" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5521</v>
       </c>
       <c r="Q12" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4471</v>
       </c>
     </row>
@@ -6326,62 +6374,62 @@
         <v>54</v>
       </c>
       <c r="C13" s="4">
+        <f t="shared" si="4"/>
+        <v>132</v>
+      </c>
+      <c r="D13" s="16">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="E13" s="16">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>132</v>
-      </c>
-      <c r="D13" s="16">
-        <f>A13/2</f>
-        <v>66</v>
-      </c>
-      <c r="E13" s="16">
+        <v>44</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="I13" s="15">
         <f t="shared" si="2"/>
-        <v>66</v>
-      </c>
-      <c r="F13" s="4">
-        <f>A13/3</f>
-        <v>44</v>
-      </c>
-      <c r="G13" s="4">
-        <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="H13" s="4">
-        <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="I13" s="15">
-        <f>A13/4</f>
         <v>33</v>
       </c>
       <c r="J13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="K13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="M13" s="1">
         <v>1</v>
       </c>
       <c r="N13" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7393</v>
       </c>
       <c r="O13" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8119</v>
       </c>
       <c r="P13" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6425</v>
       </c>
       <c r="Q13" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5215</v>
       </c>
     </row>
@@ -6393,62 +6441,62 @@
         <v>54</v>
       </c>
       <c r="C14" s="4">
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
+      <c r="D14" s="16">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="F14" s="4">
         <f t="shared" si="1"/>
-        <v>144</v>
-      </c>
-      <c r="D14" s="16">
-        <f>A14/2</f>
-        <v>72</v>
-      </c>
-      <c r="E14" s="16">
+        <v>48</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="I14" s="15">
         <f t="shared" si="2"/>
-        <v>72</v>
-      </c>
-      <c r="F14" s="4">
-        <f>A14/3</f>
-        <v>48</v>
-      </c>
-      <c r="G14" s="4">
-        <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="H14" s="4">
-        <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="I14" s="15">
-        <f>A14/4</f>
         <v>36</v>
       </c>
       <c r="J14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="K14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="L14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="M14" s="1">
         <v>1</v>
       </c>
       <c r="N14" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8065</v>
       </c>
       <c r="O14" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9289</v>
       </c>
       <c r="P14" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>7393</v>
       </c>
       <c r="Q14" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6013</v>
       </c>
     </row>
@@ -6460,62 +6508,62 @@
         <v>54</v>
       </c>
       <c r="C15" s="4">
+        <f t="shared" si="4"/>
+        <v>156</v>
+      </c>
+      <c r="D15" s="16">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="F15" s="4">
         <f t="shared" si="1"/>
-        <v>156</v>
-      </c>
-      <c r="D15" s="16">
-        <f>A15/2</f>
-        <v>78</v>
-      </c>
-      <c r="E15" s="16">
+        <v>52</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="I15" s="15">
         <f t="shared" si="2"/>
-        <v>78</v>
-      </c>
-      <c r="F15" s="4">
-        <f>A15/3</f>
-        <v>52</v>
-      </c>
-      <c r="G15" s="4">
-        <f t="shared" si="3"/>
-        <v>52</v>
-      </c>
-      <c r="H15" s="4">
-        <f t="shared" si="3"/>
-        <v>52</v>
-      </c>
-      <c r="I15" s="15">
-        <f>A15/4</f>
         <v>39</v>
       </c>
       <c r="J15" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="K15" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="L15" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="M15" s="1">
         <v>1</v>
       </c>
       <c r="N15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8737</v>
       </c>
       <c r="O15" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10531</v>
       </c>
       <c r="P15" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8425</v>
       </c>
       <c r="Q15" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6865</v>
       </c>
     </row>
@@ -6527,62 +6575,62 @@
         <v>54</v>
       </c>
       <c r="C16" s="4">
+        <f t="shared" si="4"/>
+        <v>168</v>
+      </c>
+      <c r="D16" s="16">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="F16" s="4">
         <f t="shared" si="1"/>
-        <v>168</v>
-      </c>
-      <c r="D16" s="16">
-        <f>A16/2</f>
-        <v>84</v>
-      </c>
-      <c r="E16" s="16">
+        <v>56</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="I16" s="15">
         <f t="shared" si="2"/>
-        <v>84</v>
-      </c>
-      <c r="F16" s="4">
-        <f>A16/3</f>
-        <v>56</v>
-      </c>
-      <c r="G16" s="4">
-        <f t="shared" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="H16" s="4">
-        <f t="shared" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="I16" s="15">
-        <f>A16/4</f>
         <v>42</v>
       </c>
       <c r="J16" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="K16" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="L16" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="M16" s="1">
         <v>1</v>
       </c>
       <c r="N16" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9409</v>
       </c>
       <c r="O16" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>11845</v>
       </c>
       <c r="P16" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9521</v>
       </c>
       <c r="Q16" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7771</v>
       </c>
     </row>
@@ -6594,62 +6642,62 @@
         <v>54</v>
       </c>
       <c r="C17" s="4">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="D17" s="16">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="F17" s="4">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="D17" s="16">
-        <f>A17/2</f>
-        <v>90</v>
-      </c>
-      <c r="E17" s="16">
+        <v>60</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="I17" s="15">
         <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="F17" s="4">
-        <f>A17/3</f>
-        <v>60</v>
-      </c>
-      <c r="G17" s="4">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="H17" s="4">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="I17" s="15">
-        <f>A17/4</f>
         <v>45</v>
       </c>
       <c r="J17" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="K17" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="L17" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="M17" s="1">
         <v>1</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10081</v>
       </c>
       <c r="O17" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>13231</v>
       </c>
       <c r="P17" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>10681</v>
       </c>
       <c r="Q17" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8731</v>
       </c>
     </row>
@@ -6661,62 +6709,62 @@
         <v>54</v>
       </c>
       <c r="C18" s="4">
+        <f t="shared" si="4"/>
+        <v>192</v>
+      </c>
+      <c r="D18" s="16">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="F18" s="4">
         <f t="shared" si="1"/>
-        <v>192</v>
-      </c>
-      <c r="D18" s="16">
-        <f>A18/2</f>
-        <v>96</v>
-      </c>
-      <c r="E18" s="16">
+        <v>64</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="I18" s="15">
         <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="F18" s="4">
-        <f>A18/3</f>
-        <v>64</v>
-      </c>
-      <c r="G18" s="4">
-        <f t="shared" si="3"/>
-        <v>64</v>
-      </c>
-      <c r="H18" s="4">
-        <f t="shared" si="3"/>
-        <v>64</v>
-      </c>
-      <c r="I18" s="15">
-        <f>A18/4</f>
         <v>48</v>
       </c>
       <c r="J18" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="K18" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="L18" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="M18" s="1">
         <v>1</v>
       </c>
       <c r="N18" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10753</v>
       </c>
       <c r="O18" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>14689</v>
       </c>
       <c r="P18" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>11905</v>
       </c>
       <c r="Q18" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9745</v>
       </c>
     </row>
@@ -6728,62 +6776,62 @@
         <v>54</v>
       </c>
       <c r="C19" s="4">
+        <f t="shared" si="4"/>
+        <v>204</v>
+      </c>
+      <c r="D19" s="16">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" si="5"/>
+        <v>102</v>
+      </c>
+      <c r="F19" s="4">
         <f t="shared" si="1"/>
-        <v>204</v>
-      </c>
-      <c r="D19" s="16">
-        <f>A19/2</f>
-        <v>102</v>
-      </c>
-      <c r="E19" s="16">
+        <v>68</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="I19" s="15">
         <f t="shared" si="2"/>
-        <v>102</v>
-      </c>
-      <c r="F19" s="4">
-        <f>A19/3</f>
-        <v>68</v>
-      </c>
-      <c r="G19" s="4">
-        <f t="shared" si="3"/>
-        <v>68</v>
-      </c>
-      <c r="H19" s="4">
-        <f t="shared" si="3"/>
-        <v>68</v>
-      </c>
-      <c r="I19" s="15">
-        <f>A19/4</f>
         <v>51</v>
       </c>
       <c r="J19" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>51</v>
       </c>
       <c r="K19" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>51</v>
       </c>
       <c r="L19" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>51</v>
       </c>
       <c r="M19" s="1">
         <v>1</v>
       </c>
       <c r="N19" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>11425</v>
       </c>
       <c r="O19" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>16219</v>
       </c>
       <c r="P19" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>13193</v>
       </c>
       <c r="Q19" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>10813</v>
       </c>
     </row>
@@ -6795,62 +6843,62 @@
         <v>54</v>
       </c>
       <c r="C20" s="4">
+        <f t="shared" si="4"/>
+        <v>216</v>
+      </c>
+      <c r="D20" s="16">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="E20" s="16">
+        <f t="shared" si="5"/>
+        <v>108</v>
+      </c>
+      <c r="F20" s="4">
         <f t="shared" si="1"/>
-        <v>216</v>
-      </c>
-      <c r="D20" s="16">
-        <f>A20/2</f>
-        <v>108</v>
-      </c>
-      <c r="E20" s="16">
+        <v>72</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="I20" s="15">
         <f t="shared" si="2"/>
-        <v>108</v>
-      </c>
-      <c r="F20" s="4">
-        <f>A20/3</f>
-        <v>72</v>
-      </c>
-      <c r="G20" s="4">
-        <f t="shared" si="3"/>
-        <v>72</v>
-      </c>
-      <c r="H20" s="4">
-        <f t="shared" si="3"/>
-        <v>72</v>
-      </c>
-      <c r="I20" s="15">
-        <f>A20/4</f>
         <v>54</v>
       </c>
       <c r="J20" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
       <c r="K20" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
       <c r="L20" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
       <c r="M20" s="1">
         <v>1</v>
       </c>
       <c r="N20" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>12097</v>
       </c>
       <c r="O20" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>17821</v>
       </c>
       <c r="P20" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>14545</v>
       </c>
       <c r="Q20" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>11935</v>
       </c>
     </row>
@@ -6862,62 +6910,62 @@
         <v>54</v>
       </c>
       <c r="C21" s="4">
+        <f t="shared" si="4"/>
+        <v>228</v>
+      </c>
+      <c r="D21" s="16">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="E21" s="16">
+        <f t="shared" si="5"/>
+        <v>114</v>
+      </c>
+      <c r="F21" s="4">
         <f t="shared" si="1"/>
-        <v>228</v>
-      </c>
-      <c r="D21" s="16">
-        <f>A21/2</f>
-        <v>114</v>
-      </c>
-      <c r="E21" s="16">
+        <v>76</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="I21" s="15">
         <f t="shared" si="2"/>
-        <v>114</v>
-      </c>
-      <c r="F21" s="4">
-        <f>A21/3</f>
-        <v>76</v>
-      </c>
-      <c r="G21" s="4">
-        <f t="shared" si="3"/>
-        <v>76</v>
-      </c>
-      <c r="H21" s="4">
-        <f t="shared" si="3"/>
-        <v>76</v>
-      </c>
-      <c r="I21" s="15">
-        <f>A21/4</f>
         <v>57</v>
       </c>
       <c r="J21" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>57</v>
       </c>
       <c r="K21" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>57</v>
       </c>
       <c r="L21" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>57</v>
       </c>
       <c r="M21" s="1">
         <v>1</v>
       </c>
       <c r="N21" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>12769</v>
       </c>
       <c r="O21" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>19495</v>
       </c>
       <c r="P21" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>15961</v>
       </c>
       <c r="Q21" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>13111</v>
       </c>
     </row>
@@ -6929,62 +6977,62 @@
         <v>54</v>
       </c>
       <c r="C22" s="4">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="D22" s="16">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E22" s="16">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="F22" s="4">
         <f t="shared" si="1"/>
-        <v>240</v>
-      </c>
-      <c r="D22" s="16">
-        <f>A22/2</f>
-        <v>120</v>
-      </c>
-      <c r="E22" s="16">
+        <v>80</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="I22" s="15">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="F22" s="4">
-        <f>A22/3</f>
-        <v>80</v>
-      </c>
-      <c r="G22" s="4">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="H22" s="4">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="I22" s="15">
-        <f>A22/4</f>
         <v>60</v>
       </c>
       <c r="J22" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="K22" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="L22" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="M22" s="1">
         <v>1</v>
       </c>
       <c r="N22" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>13441</v>
       </c>
       <c r="O22" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>21241</v>
       </c>
       <c r="P22" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>17441</v>
       </c>
       <c r="Q22" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>14341</v>
       </c>
     </row>
@@ -6996,62 +7044,62 @@
         <v>54</v>
       </c>
       <c r="C23" s="4">
+        <f t="shared" si="4"/>
+        <v>252</v>
+      </c>
+      <c r="D23" s="16">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="E23" s="16">
+        <f t="shared" si="5"/>
+        <v>126</v>
+      </c>
+      <c r="F23" s="4">
         <f t="shared" si="1"/>
-        <v>252</v>
-      </c>
-      <c r="D23" s="16">
-        <f>A23/2</f>
-        <v>126</v>
-      </c>
-      <c r="E23" s="16">
+        <v>84</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="I23" s="15">
         <f t="shared" si="2"/>
-        <v>126</v>
-      </c>
-      <c r="F23" s="4">
-        <f>A23/3</f>
-        <v>84</v>
-      </c>
-      <c r="G23" s="4">
-        <f t="shared" si="3"/>
-        <v>84</v>
-      </c>
-      <c r="H23" s="4">
-        <f t="shared" si="3"/>
-        <v>84</v>
-      </c>
-      <c r="I23" s="15">
-        <f>A23/4</f>
         <v>63</v>
       </c>
       <c r="J23" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>63</v>
       </c>
       <c r="K23" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>63</v>
       </c>
       <c r="L23" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>63</v>
       </c>
       <c r="M23" s="1">
         <v>1</v>
       </c>
       <c r="N23" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>14113</v>
       </c>
       <c r="O23" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>23059</v>
       </c>
       <c r="P23" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>18985</v>
       </c>
       <c r="Q23" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>15625</v>
       </c>
     </row>
@@ -7063,62 +7111,62 @@
         <v>54</v>
       </c>
       <c r="C24" s="4">
+        <f t="shared" si="4"/>
+        <v>264</v>
+      </c>
+      <c r="D24" s="16">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="E24" s="16">
+        <f t="shared" si="5"/>
+        <v>132</v>
+      </c>
+      <c r="F24" s="4">
         <f t="shared" si="1"/>
-        <v>264</v>
-      </c>
-      <c r="D24" s="16">
-        <f>A24/2</f>
-        <v>132</v>
-      </c>
-      <c r="E24" s="16">
+        <v>88</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="I24" s="15">
         <f t="shared" si="2"/>
-        <v>132</v>
-      </c>
-      <c r="F24" s="4">
-        <f>A24/3</f>
-        <v>88</v>
-      </c>
-      <c r="G24" s="4">
-        <f t="shared" si="3"/>
-        <v>88</v>
-      </c>
-      <c r="H24" s="4">
-        <f t="shared" si="3"/>
-        <v>88</v>
-      </c>
-      <c r="I24" s="15">
-        <f>A24/4</f>
         <v>66</v>
       </c>
       <c r="J24" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>66</v>
       </c>
       <c r="K24" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>66</v>
       </c>
       <c r="L24" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>66</v>
       </c>
       <c r="M24" s="1">
         <v>1</v>
       </c>
       <c r="N24" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>14785</v>
       </c>
       <c r="O24" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>24949</v>
       </c>
       <c r="P24" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>20593</v>
       </c>
       <c r="Q24" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>16963</v>
       </c>
     </row>
@@ -7130,62 +7178,62 @@
         <v>54</v>
       </c>
       <c r="C25" s="4">
+        <f t="shared" si="4"/>
+        <v>276</v>
+      </c>
+      <c r="D25" s="16">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="E25" s="16">
+        <f t="shared" si="5"/>
+        <v>138</v>
+      </c>
+      <c r="F25" s="4">
         <f t="shared" si="1"/>
-        <v>276</v>
-      </c>
-      <c r="D25" s="16">
-        <f>A25/2</f>
-        <v>138</v>
-      </c>
-      <c r="E25" s="16">
+        <v>92</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="6"/>
+        <v>92</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="6"/>
+        <v>92</v>
+      </c>
+      <c r="I25" s="15">
         <f t="shared" si="2"/>
-        <v>138</v>
-      </c>
-      <c r="F25" s="4">
-        <f>A25/3</f>
-        <v>92</v>
-      </c>
-      <c r="G25" s="4">
-        <f t="shared" si="3"/>
-        <v>92</v>
-      </c>
-      <c r="H25" s="4">
-        <f t="shared" si="3"/>
-        <v>92</v>
-      </c>
-      <c r="I25" s="15">
-        <f>A25/4</f>
         <v>69</v>
       </c>
       <c r="J25" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>69</v>
       </c>
       <c r="K25" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>69</v>
       </c>
       <c r="L25" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>69</v>
       </c>
       <c r="M25" s="1">
         <v>1</v>
       </c>
       <c r="N25" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>15457</v>
       </c>
       <c r="O25" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>26911</v>
       </c>
       <c r="P25" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>22265</v>
       </c>
       <c r="Q25" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>18355</v>
       </c>
     </row>
@@ -7197,62 +7245,62 @@
         <v>54</v>
       </c>
       <c r="C26" s="4">
+        <f t="shared" si="4"/>
+        <v>288</v>
+      </c>
+      <c r="D26" s="16">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="E26" s="16">
+        <f t="shared" si="5"/>
+        <v>144</v>
+      </c>
+      <c r="F26" s="4">
         <f t="shared" si="1"/>
-        <v>288</v>
-      </c>
-      <c r="D26" s="16">
-        <f>A26/2</f>
-        <v>144</v>
-      </c>
-      <c r="E26" s="16">
+        <v>96</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="I26" s="15">
         <f t="shared" si="2"/>
-        <v>144</v>
-      </c>
-      <c r="F26" s="4">
-        <f>A26/3</f>
-        <v>96</v>
-      </c>
-      <c r="G26" s="4">
-        <f t="shared" si="3"/>
-        <v>96</v>
-      </c>
-      <c r="H26" s="4">
-        <f t="shared" si="3"/>
-        <v>96</v>
-      </c>
-      <c r="I26" s="15">
-        <f>A26/4</f>
         <v>72</v>
       </c>
       <c r="J26" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>72</v>
       </c>
       <c r="K26" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>72</v>
       </c>
       <c r="L26" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>72</v>
       </c>
       <c r="M26" s="1">
         <v>1</v>
       </c>
       <c r="N26" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>16129</v>
       </c>
       <c r="O26" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>28945</v>
       </c>
       <c r="P26" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>24001</v>
       </c>
       <c r="Q26" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>19801</v>
       </c>
     </row>
@@ -7264,62 +7312,62 @@
         <v>54</v>
       </c>
       <c r="C27" s="4">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="D27" s="16">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="E27" s="16">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="F27" s="4">
         <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="D27" s="16">
-        <f>A27/2</f>
-        <v>150</v>
-      </c>
-      <c r="E27" s="16">
+        <v>100</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="I27" s="15">
         <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="F27" s="4">
-        <f>A27/3</f>
-        <v>100</v>
-      </c>
-      <c r="G27" s="4">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="H27" s="4">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="I27" s="15">
-        <f>A27/4</f>
         <v>75</v>
       </c>
       <c r="J27" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="K27" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="L27" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="M27" s="1">
         <v>1</v>
       </c>
       <c r="N27" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>16801</v>
       </c>
       <c r="O27" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>31051</v>
       </c>
       <c r="P27" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>25801</v>
       </c>
       <c r="Q27" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>21301</v>
       </c>
     </row>
@@ -7331,62 +7379,62 @@
         <v>54</v>
       </c>
       <c r="C28" s="4">
+        <f t="shared" si="4"/>
+        <v>312</v>
+      </c>
+      <c r="D28" s="16">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="E28" s="16">
+        <f t="shared" si="5"/>
+        <v>156</v>
+      </c>
+      <c r="F28" s="4">
         <f t="shared" si="1"/>
-        <v>312</v>
-      </c>
-      <c r="D28" s="16">
-        <f>A28/2</f>
-        <v>156</v>
-      </c>
-      <c r="E28" s="16">
+        <v>104</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="6"/>
+        <v>104</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="6"/>
+        <v>104</v>
+      </c>
+      <c r="I28" s="15">
         <f t="shared" si="2"/>
-        <v>156</v>
-      </c>
-      <c r="F28" s="4">
-        <f>A28/3</f>
-        <v>104</v>
-      </c>
-      <c r="G28" s="4">
-        <f t="shared" si="3"/>
-        <v>104</v>
-      </c>
-      <c r="H28" s="4">
-        <f t="shared" si="3"/>
-        <v>104</v>
-      </c>
-      <c r="I28" s="15">
-        <f>A28/4</f>
         <v>78</v>
       </c>
       <c r="J28" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>78</v>
       </c>
       <c r="K28" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>78</v>
       </c>
       <c r="L28" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>78</v>
       </c>
       <c r="M28" s="1">
         <v>1</v>
       </c>
       <c r="N28" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>17473</v>
       </c>
       <c r="O28" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>33229</v>
       </c>
       <c r="P28" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>27665</v>
       </c>
       <c r="Q28" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>22855</v>
       </c>
     </row>
@@ -7398,62 +7446,62 @@
         <v>54</v>
       </c>
       <c r="C29" s="4">
+        <f t="shared" si="4"/>
+        <v>324</v>
+      </c>
+      <c r="D29" s="16">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="E29" s="16">
+        <f t="shared" si="5"/>
+        <v>162</v>
+      </c>
+      <c r="F29" s="4">
         <f t="shared" si="1"/>
-        <v>324</v>
-      </c>
-      <c r="D29" s="16">
-        <f>A29/2</f>
-        <v>162</v>
-      </c>
-      <c r="E29" s="16">
+        <v>108</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="6"/>
+        <v>108</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="6"/>
+        <v>108</v>
+      </c>
+      <c r="I29" s="15">
         <f t="shared" si="2"/>
-        <v>162</v>
-      </c>
-      <c r="F29" s="4">
-        <f>A29/3</f>
-        <v>108</v>
-      </c>
-      <c r="G29" s="4">
-        <f t="shared" si="3"/>
-        <v>108</v>
-      </c>
-      <c r="H29" s="4">
-        <f t="shared" si="3"/>
-        <v>108</v>
-      </c>
-      <c r="I29" s="15">
-        <f>A29/4</f>
         <v>81</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>81</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>81</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>81</v>
       </c>
       <c r="M29" s="1">
         <v>1</v>
       </c>
       <c r="N29" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>18145</v>
       </c>
       <c r="O29" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>35479</v>
       </c>
       <c r="P29" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>29593</v>
       </c>
       <c r="Q29" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>24463</v>
       </c>
     </row>
@@ -7465,62 +7513,62 @@
         <v>54</v>
       </c>
       <c r="C30" s="4">
+        <f t="shared" si="4"/>
+        <v>336</v>
+      </c>
+      <c r="D30" s="16">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="E30" s="16">
+        <f t="shared" si="5"/>
+        <v>168</v>
+      </c>
+      <c r="F30" s="4">
         <f t="shared" si="1"/>
-        <v>336</v>
-      </c>
-      <c r="D30" s="16">
-        <f>A30/2</f>
-        <v>168</v>
-      </c>
-      <c r="E30" s="16">
+        <v>112</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="I30" s="15">
         <f t="shared" si="2"/>
-        <v>168</v>
-      </c>
-      <c r="F30" s="4">
-        <f>A30/3</f>
-        <v>112</v>
-      </c>
-      <c r="G30" s="4">
-        <f t="shared" si="3"/>
-        <v>112</v>
-      </c>
-      <c r="H30" s="4">
-        <f t="shared" si="3"/>
-        <v>112</v>
-      </c>
-      <c r="I30" s="15">
-        <f>A30/4</f>
         <v>84</v>
       </c>
       <c r="J30" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>84</v>
       </c>
       <c r="K30" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>84</v>
       </c>
       <c r="L30" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>84</v>
       </c>
       <c r="M30" s="1">
         <v>1</v>
       </c>
       <c r="N30" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>18817</v>
       </c>
       <c r="O30" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>37801</v>
       </c>
       <c r="P30" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>31585</v>
       </c>
       <c r="Q30" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>26125</v>
       </c>
     </row>
@@ -7532,62 +7580,62 @@
         <v>54</v>
       </c>
       <c r="C31" s="4">
+        <f t="shared" si="4"/>
+        <v>348</v>
+      </c>
+      <c r="D31" s="16">
+        <f t="shared" si="0"/>
+        <v>174</v>
+      </c>
+      <c r="E31" s="16">
+        <f t="shared" si="5"/>
+        <v>174</v>
+      </c>
+      <c r="F31" s="4">
         <f t="shared" si="1"/>
-        <v>348</v>
-      </c>
-      <c r="D31" s="16">
-        <f>A31/2</f>
-        <v>174</v>
-      </c>
-      <c r="E31" s="16">
+        <v>116</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="6"/>
+        <v>116</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" si="6"/>
+        <v>116</v>
+      </c>
+      <c r="I31" s="15">
         <f t="shared" si="2"/>
-        <v>174</v>
-      </c>
-      <c r="F31" s="4">
-        <f>A31/3</f>
-        <v>116</v>
-      </c>
-      <c r="G31" s="4">
-        <f t="shared" si="3"/>
-        <v>116</v>
-      </c>
-      <c r="H31" s="4">
-        <f t="shared" si="3"/>
-        <v>116</v>
-      </c>
-      <c r="I31" s="15">
-        <f>A31/4</f>
         <v>87</v>
       </c>
       <c r="J31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>87</v>
       </c>
       <c r="K31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>87</v>
       </c>
       <c r="L31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>87</v>
       </c>
       <c r="M31" s="1">
         <v>1</v>
       </c>
       <c r="N31" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>19489</v>
       </c>
       <c r="O31" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>40195</v>
       </c>
       <c r="P31" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>33641</v>
       </c>
       <c r="Q31" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>27841</v>
       </c>
     </row>
@@ -7599,62 +7647,62 @@
         <v>54</v>
       </c>
       <c r="C32" s="4">
+        <f t="shared" si="4"/>
+        <v>360</v>
+      </c>
+      <c r="D32" s="16">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="E32" s="16">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="F32" s="4">
         <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-      <c r="D32" s="16">
-        <f>A32/2</f>
-        <v>180</v>
-      </c>
-      <c r="E32" s="16">
+        <v>120</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="H32" s="4">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="I32" s="15">
         <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="F32" s="4">
-        <f>A32/3</f>
-        <v>120</v>
-      </c>
-      <c r="G32" s="4">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="H32" s="4">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="I32" s="15">
-        <f>A32/4</f>
         <v>90</v>
       </c>
       <c r="J32" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="K32" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="L32" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="M32" s="1">
         <v>1</v>
       </c>
       <c r="N32" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20161</v>
       </c>
       <c r="O32" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>42661</v>
       </c>
       <c r="P32" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>35761</v>
       </c>
       <c r="Q32" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>29611</v>
       </c>
     </row>
@@ -7666,62 +7714,62 @@
         <v>54</v>
       </c>
       <c r="C33" s="4">
+        <f t="shared" si="4"/>
+        <v>372</v>
+      </c>
+      <c r="D33" s="16">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+      <c r="E33" s="16">
+        <f t="shared" si="5"/>
+        <v>186</v>
+      </c>
+      <c r="F33" s="4">
         <f t="shared" si="1"/>
-        <v>372</v>
-      </c>
-      <c r="D33" s="16">
-        <f>A33/2</f>
-        <v>186</v>
-      </c>
-      <c r="E33" s="16">
+        <v>124</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="6"/>
+        <v>124</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="6"/>
+        <v>124</v>
+      </c>
+      <c r="I33" s="15">
         <f t="shared" si="2"/>
-        <v>186</v>
-      </c>
-      <c r="F33" s="4">
-        <f>A33/3</f>
-        <v>124</v>
-      </c>
-      <c r="G33" s="4">
-        <f t="shared" si="3"/>
-        <v>124</v>
-      </c>
-      <c r="H33" s="4">
-        <f t="shared" si="3"/>
-        <v>124</v>
-      </c>
-      <c r="I33" s="15">
-        <f>A33/4</f>
         <v>93</v>
       </c>
       <c r="J33" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>93</v>
       </c>
       <c r="K33" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>93</v>
       </c>
       <c r="L33" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>93</v>
       </c>
       <c r="M33" s="1">
         <v>1</v>
       </c>
       <c r="N33" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20833</v>
       </c>
       <c r="O33" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>45199</v>
       </c>
       <c r="P33" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>37945</v>
       </c>
       <c r="Q33" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>31435</v>
       </c>
     </row>
@@ -7733,62 +7781,62 @@
         <v>54</v>
       </c>
       <c r="C34" s="4">
+        <f t="shared" si="4"/>
+        <v>384</v>
+      </c>
+      <c r="D34" s="16">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="E34" s="16">
+        <f t="shared" si="5"/>
+        <v>192</v>
+      </c>
+      <c r="F34" s="4">
         <f t="shared" si="1"/>
-        <v>384</v>
-      </c>
-      <c r="D34" s="16">
-        <f>A34/2</f>
-        <v>192</v>
-      </c>
-      <c r="E34" s="16">
+        <v>128</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="I34" s="15">
         <f t="shared" si="2"/>
-        <v>192</v>
-      </c>
-      <c r="F34" s="4">
-        <f>A34/3</f>
-        <v>128</v>
-      </c>
-      <c r="G34" s="4">
-        <f t="shared" si="3"/>
-        <v>128</v>
-      </c>
-      <c r="H34" s="4">
-        <f t="shared" si="3"/>
-        <v>128</v>
-      </c>
-      <c r="I34" s="15">
-        <f>A34/4</f>
         <v>96</v>
       </c>
       <c r="J34" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>96</v>
       </c>
       <c r="K34" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>96</v>
       </c>
       <c r="L34" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>96</v>
       </c>
       <c r="M34" s="1">
         <v>1</v>
       </c>
       <c r="N34" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>21505</v>
       </c>
       <c r="O34" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>47809</v>
       </c>
       <c r="P34" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>40193</v>
       </c>
       <c r="Q34" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>33313</v>
       </c>
     </row>
@@ -7800,62 +7848,62 @@
         <v>54</v>
       </c>
       <c r="C35" s="4">
+        <f t="shared" si="4"/>
+        <v>396</v>
+      </c>
+      <c r="D35" s="16">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="E35" s="16">
+        <f t="shared" si="5"/>
+        <v>198</v>
+      </c>
+      <c r="F35" s="4">
         <f t="shared" si="1"/>
-        <v>396</v>
-      </c>
-      <c r="D35" s="16">
-        <f>A35/2</f>
-        <v>198</v>
-      </c>
-      <c r="E35" s="16">
+        <v>132</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="6"/>
+        <v>132</v>
+      </c>
+      <c r="H35" s="4">
+        <f t="shared" si="6"/>
+        <v>132</v>
+      </c>
+      <c r="I35" s="15">
         <f t="shared" si="2"/>
-        <v>198</v>
-      </c>
-      <c r="F35" s="4">
-        <f>A35/3</f>
-        <v>132</v>
-      </c>
-      <c r="G35" s="4">
-        <f t="shared" si="3"/>
-        <v>132</v>
-      </c>
-      <c r="H35" s="4">
-        <f t="shared" si="3"/>
-        <v>132</v>
-      </c>
-      <c r="I35" s="15">
-        <f>A35/4</f>
         <v>99</v>
       </c>
       <c r="J35" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>99</v>
       </c>
       <c r="K35" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>99</v>
       </c>
       <c r="L35" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>99</v>
       </c>
       <c r="M35" s="1">
         <v>1</v>
       </c>
       <c r="N35" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>22177</v>
       </c>
       <c r="O35" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>50491</v>
       </c>
       <c r="P35" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>42505</v>
       </c>
       <c r="Q35" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>35245</v>
       </c>
     </row>
@@ -7867,62 +7915,62 @@
         <v>54</v>
       </c>
       <c r="C36" s="4">
+        <f t="shared" si="4"/>
+        <v>408</v>
+      </c>
+      <c r="D36" s="16">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="E36" s="16">
+        <f t="shared" si="5"/>
+        <v>204</v>
+      </c>
+      <c r="F36" s="4">
         <f t="shared" si="1"/>
-        <v>408</v>
-      </c>
-      <c r="D36" s="16">
-        <f>A36/2</f>
-        <v>204</v>
-      </c>
-      <c r="E36" s="16">
+        <v>136</v>
+      </c>
+      <c r="G36" s="4">
+        <f t="shared" si="6"/>
+        <v>136</v>
+      </c>
+      <c r="H36" s="4">
+        <f t="shared" si="6"/>
+        <v>136</v>
+      </c>
+      <c r="I36" s="15">
         <f t="shared" si="2"/>
-        <v>204</v>
-      </c>
-      <c r="F36" s="4">
-        <f>A36/3</f>
-        <v>136</v>
-      </c>
-      <c r="G36" s="4">
-        <f t="shared" si="3"/>
-        <v>136</v>
-      </c>
-      <c r="H36" s="4">
-        <f t="shared" si="3"/>
-        <v>136</v>
-      </c>
-      <c r="I36" s="15">
-        <f>A36/4</f>
         <v>102</v>
       </c>
       <c r="J36" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>102</v>
       </c>
       <c r="K36" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>102</v>
       </c>
       <c r="L36" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>102</v>
       </c>
       <c r="M36" s="1">
         <v>1</v>
       </c>
       <c r="N36" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>22849</v>
       </c>
       <c r="O36" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>53245</v>
       </c>
       <c r="P36" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>44881</v>
       </c>
       <c r="Q36" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>37231</v>
       </c>
     </row>
@@ -7934,62 +7982,62 @@
         <v>54</v>
       </c>
       <c r="C37" s="4">
+        <f t="shared" si="4"/>
+        <v>420</v>
+      </c>
+      <c r="D37" s="16">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="E37" s="16">
+        <f t="shared" si="5"/>
+        <v>210</v>
+      </c>
+      <c r="F37" s="4">
         <f t="shared" si="1"/>
-        <v>420</v>
-      </c>
-      <c r="D37" s="16">
-        <f>A37/2</f>
-        <v>210</v>
-      </c>
-      <c r="E37" s="16">
+        <v>140</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="6"/>
+        <v>140</v>
+      </c>
+      <c r="H37" s="4">
+        <f t="shared" si="6"/>
+        <v>140</v>
+      </c>
+      <c r="I37" s="15">
         <f t="shared" si="2"/>
-        <v>210</v>
-      </c>
-      <c r="F37" s="4">
-        <f>A37/3</f>
-        <v>140</v>
-      </c>
-      <c r="G37" s="4">
-        <f t="shared" si="3"/>
-        <v>140</v>
-      </c>
-      <c r="H37" s="4">
-        <f t="shared" si="3"/>
-        <v>140</v>
-      </c>
-      <c r="I37" s="15">
-        <f>A37/4</f>
         <v>105</v>
       </c>
       <c r="J37" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>105</v>
       </c>
       <c r="K37" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>105</v>
       </c>
       <c r="L37" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>105</v>
       </c>
       <c r="M37" s="1">
         <v>1</v>
       </c>
       <c r="N37" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>23521</v>
       </c>
       <c r="O37" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>56071</v>
       </c>
       <c r="P37" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>47321</v>
       </c>
       <c r="Q37" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>39271</v>
       </c>
     </row>
@@ -8001,62 +8049,62 @@
         <v>54</v>
       </c>
       <c r="C38" s="4">
+        <f t="shared" si="4"/>
+        <v>432</v>
+      </c>
+      <c r="D38" s="16">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="E38" s="16">
+        <f t="shared" si="5"/>
+        <v>216</v>
+      </c>
+      <c r="F38" s="4">
         <f t="shared" si="1"/>
-        <v>432</v>
-      </c>
-      <c r="D38" s="16">
-        <f>A38/2</f>
-        <v>216</v>
-      </c>
-      <c r="E38" s="16">
+        <v>144</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="6"/>
+        <v>144</v>
+      </c>
+      <c r="H38" s="4">
+        <f t="shared" si="6"/>
+        <v>144</v>
+      </c>
+      <c r="I38" s="15">
         <f t="shared" si="2"/>
-        <v>216</v>
-      </c>
-      <c r="F38" s="4">
-        <f>A38/3</f>
-        <v>144</v>
-      </c>
-      <c r="G38" s="4">
-        <f t="shared" si="3"/>
-        <v>144</v>
-      </c>
-      <c r="H38" s="4">
-        <f t="shared" si="3"/>
-        <v>144</v>
-      </c>
-      <c r="I38" s="15">
-        <f>A38/4</f>
         <v>108</v>
       </c>
       <c r="J38" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>108</v>
       </c>
       <c r="K38" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>108</v>
       </c>
       <c r="L38" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>108</v>
       </c>
       <c r="M38" s="1">
         <v>1</v>
       </c>
       <c r="N38" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>24193</v>
       </c>
       <c r="O38" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>58969</v>
       </c>
       <c r="P38" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>49825</v>
       </c>
       <c r="Q38" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41365</v>
       </c>
     </row>
@@ -8068,62 +8116,62 @@
         <v>54</v>
       </c>
       <c r="C39" s="4">
+        <f t="shared" si="4"/>
+        <v>444</v>
+      </c>
+      <c r="D39" s="16">
+        <f t="shared" si="0"/>
+        <v>222</v>
+      </c>
+      <c r="E39" s="16">
+        <f t="shared" si="5"/>
+        <v>222</v>
+      </c>
+      <c r="F39" s="4">
         <f t="shared" si="1"/>
-        <v>444</v>
-      </c>
-      <c r="D39" s="16">
-        <f>A39/2</f>
-        <v>222</v>
-      </c>
-      <c r="E39" s="16">
+        <v>148</v>
+      </c>
+      <c r="G39" s="4">
+        <f t="shared" si="6"/>
+        <v>148</v>
+      </c>
+      <c r="H39" s="4">
+        <f t="shared" si="6"/>
+        <v>148</v>
+      </c>
+      <c r="I39" s="15">
         <f t="shared" si="2"/>
-        <v>222</v>
-      </c>
-      <c r="F39" s="4">
-        <f>A39/3</f>
-        <v>148</v>
-      </c>
-      <c r="G39" s="4">
-        <f t="shared" si="3"/>
-        <v>148</v>
-      </c>
-      <c r="H39" s="4">
-        <f t="shared" si="3"/>
-        <v>148</v>
-      </c>
-      <c r="I39" s="15">
-        <f>A39/4</f>
         <v>111</v>
       </c>
       <c r="J39" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>111</v>
       </c>
       <c r="K39" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>111</v>
       </c>
       <c r="L39" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>111</v>
       </c>
       <c r="M39" s="1">
         <v>1</v>
       </c>
       <c r="N39" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>24865</v>
       </c>
       <c r="O39" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>61939</v>
       </c>
       <c r="P39" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>52393</v>
       </c>
       <c r="Q39" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>43513</v>
       </c>
     </row>
@@ -8135,62 +8183,62 @@
         <v>54</v>
       </c>
       <c r="C40" s="4">
+        <f t="shared" si="4"/>
+        <v>456</v>
+      </c>
+      <c r="D40" s="16">
+        <f t="shared" si="0"/>
+        <v>228</v>
+      </c>
+      <c r="E40" s="16">
+        <f t="shared" si="5"/>
+        <v>228</v>
+      </c>
+      <c r="F40" s="4">
         <f t="shared" si="1"/>
-        <v>456</v>
-      </c>
-      <c r="D40" s="16">
-        <f>A40/2</f>
-        <v>228</v>
-      </c>
-      <c r="E40" s="16">
+        <v>152</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="6"/>
+        <v>152</v>
+      </c>
+      <c r="H40" s="4">
+        <f t="shared" si="6"/>
+        <v>152</v>
+      </c>
+      <c r="I40" s="15">
         <f t="shared" si="2"/>
-        <v>228</v>
-      </c>
-      <c r="F40" s="4">
-        <f>A40/3</f>
-        <v>152</v>
-      </c>
-      <c r="G40" s="4">
-        <f t="shared" si="3"/>
-        <v>152</v>
-      </c>
-      <c r="H40" s="4">
-        <f t="shared" si="3"/>
-        <v>152</v>
-      </c>
-      <c r="I40" s="15">
-        <f>A40/4</f>
         <v>114</v>
       </c>
       <c r="J40" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>114</v>
       </c>
       <c r="K40" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>114</v>
       </c>
       <c r="L40" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>114</v>
       </c>
       <c r="M40" s="1">
         <v>1</v>
       </c>
       <c r="N40" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>25537</v>
       </c>
       <c r="O40" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>64981</v>
       </c>
       <c r="P40" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>55025</v>
       </c>
       <c r="Q40" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>45715</v>
       </c>
     </row>
@@ -8202,62 +8250,62 @@
         <v>54</v>
       </c>
       <c r="C41" s="4">
+        <f t="shared" si="4"/>
+        <v>468</v>
+      </c>
+      <c r="D41" s="16">
+        <f t="shared" si="0"/>
+        <v>234</v>
+      </c>
+      <c r="E41" s="16">
+        <f t="shared" si="5"/>
+        <v>234</v>
+      </c>
+      <c r="F41" s="4">
         <f t="shared" si="1"/>
-        <v>468</v>
-      </c>
-      <c r="D41" s="16">
-        <f>A41/2</f>
-        <v>234</v>
-      </c>
-      <c r="E41" s="16">
+        <v>156</v>
+      </c>
+      <c r="G41" s="4">
+        <f t="shared" si="6"/>
+        <v>156</v>
+      </c>
+      <c r="H41" s="4">
+        <f t="shared" si="6"/>
+        <v>156</v>
+      </c>
+      <c r="I41" s="15">
         <f t="shared" si="2"/>
-        <v>234</v>
-      </c>
-      <c r="F41" s="4">
-        <f>A41/3</f>
-        <v>156</v>
-      </c>
-      <c r="G41" s="4">
-        <f t="shared" si="3"/>
-        <v>156</v>
-      </c>
-      <c r="H41" s="4">
-        <f t="shared" si="3"/>
-        <v>156</v>
-      </c>
-      <c r="I41" s="15">
-        <f>A41/4</f>
         <v>117</v>
       </c>
       <c r="J41" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>117</v>
       </c>
       <c r="K41" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>117</v>
       </c>
       <c r="L41" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>117</v>
       </c>
       <c r="M41" s="1">
         <v>1</v>
       </c>
       <c r="N41" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>26209</v>
       </c>
       <c r="O41" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>68095</v>
       </c>
       <c r="P41" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>57721</v>
       </c>
       <c r="Q41" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>47971</v>
       </c>
     </row>
@@ -8269,62 +8317,62 @@
         <v>54</v>
       </c>
       <c r="C42" s="4">
+        <f t="shared" si="4"/>
+        <v>480</v>
+      </c>
+      <c r="D42" s="16">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="E42" s="16">
+        <f t="shared" si="5"/>
+        <v>240</v>
+      </c>
+      <c r="F42" s="4">
         <f t="shared" si="1"/>
-        <v>480</v>
-      </c>
-      <c r="D42" s="16">
-        <f>A42/2</f>
-        <v>240</v>
-      </c>
-      <c r="E42" s="16">
+        <v>160</v>
+      </c>
+      <c r="G42" s="4">
+        <f t="shared" si="6"/>
+        <v>160</v>
+      </c>
+      <c r="H42" s="4">
+        <f t="shared" si="6"/>
+        <v>160</v>
+      </c>
+      <c r="I42" s="15">
         <f t="shared" si="2"/>
-        <v>240</v>
-      </c>
-      <c r="F42" s="4">
-        <f>A42/3</f>
-        <v>160</v>
-      </c>
-      <c r="G42" s="4">
-        <f t="shared" si="3"/>
-        <v>160</v>
-      </c>
-      <c r="H42" s="4">
-        <f t="shared" si="3"/>
-        <v>160</v>
-      </c>
-      <c r="I42" s="15">
-        <f>A42/4</f>
         <v>120</v>
       </c>
       <c r="J42" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
       <c r="K42" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
       <c r="L42" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
       <c r="M42" s="1">
         <v>1</v>
       </c>
       <c r="N42" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>26881</v>
       </c>
       <c r="O42" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>71281</v>
       </c>
       <c r="P42" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>60481</v>
       </c>
       <c r="Q42" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>50281</v>
       </c>
     </row>
@@ -8336,62 +8384,62 @@
         <v>54</v>
       </c>
       <c r="C43" s="4">
-        <f t="shared" ref="C43:C102" si="9">A43</f>
+        <f t="shared" ref="C43:C102" si="12">A43</f>
         <v>492</v>
       </c>
       <c r="D43" s="16">
-        <f t="shared" ref="D43:D102" si="10">A43/2</f>
+        <f t="shared" ref="D43:D102" si="13">A43/2</f>
         <v>246</v>
       </c>
       <c r="E43" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>246</v>
       </c>
       <c r="F43" s="4">
-        <f t="shared" ref="F43:F102" si="11">A43/3</f>
+        <f t="shared" ref="F43:F102" si="14">A43/3</f>
         <v>164</v>
       </c>
       <c r="G43" s="4">
-        <f t="shared" ref="G43:H43" si="12">F43</f>
+        <f t="shared" ref="G43:H43" si="15">F43</f>
         <v>164</v>
       </c>
       <c r="H43" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>164</v>
       </c>
       <c r="I43" s="15">
-        <f t="shared" ref="I43:I102" si="13">A43/4</f>
+        <f t="shared" ref="I43:I102" si="16">A43/4</f>
         <v>123</v>
       </c>
       <c r="J43" s="15">
-        <f t="shared" ref="J43:L43" si="14">I43</f>
+        <f t="shared" ref="J43:L43" si="17">I43</f>
         <v>123</v>
       </c>
       <c r="K43" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>123</v>
       </c>
       <c r="L43" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>123</v>
       </c>
       <c r="M43" s="1">
         <v>1</v>
       </c>
       <c r="N43" s="6">
-        <f t="shared" ref="N43:N102" si="15">(B43+1)*C43+(C43+1)*M43</f>
+        <f t="shared" ref="N43:N102" si="18">(B43+1)*C43+(C43+1)*M43</f>
         <v>27553</v>
       </c>
       <c r="O43" s="9">
-        <f t="shared" ref="O43:O102" si="16">(B43+1)*D43+(D43+1)*E43+(E43+1)*M43</f>
+        <f t="shared" ref="O43:O102" si="19">(B43+1)*D43+(D43+1)*E43+(E43+1)*M43</f>
         <v>74539</v>
       </c>
       <c r="P43" s="9">
-        <f t="shared" ref="P43:P102" si="17">(B43+1)*F43+(F43+1)*G43+(G43+1)*H43+(H43+1)*M43</f>
+        <f t="shared" ref="P43:P102" si="20">(B43+1)*F43+(F43+1)*G43+(G43+1)*H43+(H43+1)*M43</f>
         <v>63305</v>
       </c>
       <c r="Q43" s="9">
-        <f t="shared" ref="Q43:Q102" si="18">(B43+1)*I43+(I43+1)*J43+(J43+1)*K43+(K43+1)*L43+(L43+1)*M43</f>
+        <f t="shared" ref="Q43:Q102" si="21">(B43+1)*I43+(I43+1)*J43+(J43+1)*K43+(K43+1)*L43+(L43+1)*M43</f>
         <v>52645</v>
       </c>
     </row>
@@ -8403,62 +8451,62 @@
         <v>54</v>
       </c>
       <c r="C44" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>504</v>
       </c>
       <c r="D44" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>252</v>
       </c>
       <c r="E44" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>252</v>
       </c>
       <c r="F44" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>168</v>
       </c>
       <c r="G44" s="4">
-        <f t="shared" ref="G44:H44" si="19">F44</f>
+        <f t="shared" ref="G44:H44" si="22">F44</f>
         <v>168</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>168</v>
       </c>
       <c r="I44" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>126</v>
       </c>
       <c r="J44" s="15">
-        <f t="shared" ref="J44:L44" si="20">I44</f>
+        <f t="shared" ref="J44:L44" si="23">I44</f>
         <v>126</v>
       </c>
       <c r="K44" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>126</v>
       </c>
       <c r="L44" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>126</v>
       </c>
       <c r="M44" s="1">
         <v>1</v>
       </c>
       <c r="N44" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>28225</v>
       </c>
       <c r="O44" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>77869</v>
       </c>
       <c r="P44" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>66193</v>
       </c>
       <c r="Q44" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>55063</v>
       </c>
     </row>
@@ -8470,62 +8518,62 @@
         <v>54</v>
       </c>
       <c r="C45" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>516</v>
       </c>
       <c r="D45" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>258</v>
       </c>
       <c r="E45" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>258</v>
       </c>
       <c r="F45" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>172</v>
       </c>
       <c r="G45" s="4">
-        <f t="shared" ref="G45:H45" si="21">F45</f>
+        <f t="shared" ref="G45:H45" si="24">F45</f>
         <v>172</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>172</v>
       </c>
       <c r="I45" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>129</v>
       </c>
       <c r="J45" s="15">
-        <f t="shared" ref="J45:L45" si="22">I45</f>
+        <f t="shared" ref="J45:L45" si="25">I45</f>
         <v>129</v>
       </c>
       <c r="K45" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>129</v>
       </c>
       <c r="L45" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>129</v>
       </c>
       <c r="M45" s="1">
         <v>1</v>
       </c>
       <c r="N45" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>28897</v>
       </c>
       <c r="O45" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>81271</v>
       </c>
       <c r="P45" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>69145</v>
       </c>
       <c r="Q45" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>57535</v>
       </c>
     </row>
@@ -8537,62 +8585,62 @@
         <v>54</v>
       </c>
       <c r="C46" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>528</v>
       </c>
       <c r="D46" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>264</v>
       </c>
       <c r="E46" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>264</v>
       </c>
       <c r="F46" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>176</v>
       </c>
       <c r="G46" s="4">
-        <f t="shared" ref="G46:H46" si="23">F46</f>
+        <f t="shared" ref="G46:H46" si="26">F46</f>
         <v>176</v>
       </c>
       <c r="H46" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>176</v>
       </c>
       <c r="I46" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>132</v>
       </c>
       <c r="J46" s="15">
-        <f t="shared" ref="J46:L46" si="24">I46</f>
+        <f t="shared" ref="J46:L46" si="27">I46</f>
         <v>132</v>
       </c>
       <c r="K46" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>132</v>
       </c>
       <c r="L46" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>132</v>
       </c>
       <c r="M46" s="1">
         <v>1</v>
       </c>
       <c r="N46" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>29569</v>
       </c>
       <c r="O46" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>84745</v>
       </c>
       <c r="P46" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>72161</v>
       </c>
       <c r="Q46" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>60061</v>
       </c>
     </row>
@@ -8604,62 +8652,62 @@
         <v>54</v>
       </c>
       <c r="C47" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>540</v>
       </c>
       <c r="D47" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>270</v>
       </c>
       <c r="E47" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>270</v>
       </c>
       <c r="F47" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>180</v>
       </c>
       <c r="G47" s="4">
-        <f t="shared" ref="G47:H47" si="25">F47</f>
+        <f t="shared" ref="G47:H47" si="28">F47</f>
         <v>180</v>
       </c>
       <c r="H47" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>180</v>
       </c>
       <c r="I47" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>135</v>
       </c>
       <c r="J47" s="15">
-        <f t="shared" ref="J47:L47" si="26">I47</f>
+        <f t="shared" ref="J47:L47" si="29">I47</f>
         <v>135</v>
       </c>
       <c r="K47" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>135</v>
       </c>
       <c r="L47" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>135</v>
       </c>
       <c r="M47" s="1">
         <v>1</v>
       </c>
       <c r="N47" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>30241</v>
       </c>
       <c r="O47" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>88291</v>
       </c>
       <c r="P47" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>75241</v>
       </c>
       <c r="Q47" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>62641</v>
       </c>
     </row>
@@ -8671,62 +8719,62 @@
         <v>54</v>
       </c>
       <c r="C48" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>552</v>
       </c>
       <c r="D48" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>276</v>
       </c>
       <c r="E48" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>276</v>
       </c>
       <c r="F48" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>184</v>
       </c>
       <c r="G48" s="4">
-        <f t="shared" ref="G48:H48" si="27">F48</f>
+        <f t="shared" ref="G48:H48" si="30">F48</f>
         <v>184</v>
       </c>
       <c r="H48" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>184</v>
       </c>
       <c r="I48" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>138</v>
       </c>
       <c r="J48" s="15">
-        <f t="shared" ref="J48:L48" si="28">I48</f>
+        <f t="shared" ref="J48:L48" si="31">I48</f>
         <v>138</v>
       </c>
       <c r="K48" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>138</v>
       </c>
       <c r="L48" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>138</v>
       </c>
       <c r="M48" s="1">
         <v>1</v>
       </c>
       <c r="N48" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>30913</v>
       </c>
       <c r="O48" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>91909</v>
       </c>
       <c r="P48" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>78385</v>
       </c>
       <c r="Q48" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>65275</v>
       </c>
     </row>
@@ -8738,62 +8786,62 @@
         <v>54</v>
       </c>
       <c r="C49" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>564</v>
       </c>
       <c r="D49" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>282</v>
       </c>
       <c r="E49" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>282</v>
       </c>
       <c r="F49" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>188</v>
       </c>
       <c r="G49" s="4">
-        <f t="shared" ref="G49:H49" si="29">F49</f>
+        <f t="shared" ref="G49:H49" si="32">F49</f>
         <v>188</v>
       </c>
       <c r="H49" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>188</v>
       </c>
       <c r="I49" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>141</v>
       </c>
       <c r="J49" s="15">
-        <f t="shared" ref="J49:L49" si="30">I49</f>
+        <f t="shared" ref="J49:L49" si="33">I49</f>
         <v>141</v>
       </c>
       <c r="K49" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>141</v>
       </c>
       <c r="L49" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>141</v>
       </c>
       <c r="M49" s="1">
         <v>1</v>
       </c>
       <c r="N49" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>31585</v>
       </c>
       <c r="O49" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>95599</v>
       </c>
       <c r="P49" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>81593</v>
       </c>
       <c r="Q49" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>67963</v>
       </c>
     </row>
@@ -8805,62 +8853,62 @@
         <v>54</v>
       </c>
       <c r="C50" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>576</v>
       </c>
       <c r="D50" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>288</v>
       </c>
       <c r="E50" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>288</v>
       </c>
       <c r="F50" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>192</v>
       </c>
       <c r="G50" s="4">
-        <f t="shared" ref="G50:H50" si="31">F50</f>
+        <f t="shared" ref="G50:H50" si="34">F50</f>
         <v>192</v>
       </c>
       <c r="H50" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>192</v>
       </c>
       <c r="I50" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>144</v>
       </c>
       <c r="J50" s="15">
-        <f t="shared" ref="J50:L50" si="32">I50</f>
+        <f t="shared" ref="J50:L50" si="35">I50</f>
         <v>144</v>
       </c>
       <c r="K50" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>144</v>
       </c>
       <c r="L50" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>144</v>
       </c>
       <c r="M50" s="1">
         <v>1</v>
       </c>
       <c r="N50" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>32257</v>
       </c>
       <c r="O50" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>99361</v>
       </c>
       <c r="P50" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>84865</v>
       </c>
       <c r="Q50" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>70705</v>
       </c>
     </row>
@@ -8872,62 +8920,62 @@
         <v>54</v>
       </c>
       <c r="C51" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>588</v>
       </c>
       <c r="D51" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>294</v>
       </c>
       <c r="E51" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>294</v>
       </c>
       <c r="F51" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>196</v>
       </c>
       <c r="G51" s="4">
-        <f t="shared" ref="G51:H51" si="33">F51</f>
+        <f t="shared" ref="G51:H51" si="36">F51</f>
         <v>196</v>
       </c>
       <c r="H51" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>196</v>
       </c>
       <c r="I51" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>147</v>
       </c>
       <c r="J51" s="15">
-        <f t="shared" ref="J51:L51" si="34">I51</f>
+        <f t="shared" ref="J51:L51" si="37">I51</f>
         <v>147</v>
       </c>
       <c r="K51" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>147</v>
       </c>
       <c r="L51" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>147</v>
       </c>
       <c r="M51" s="1">
         <v>1</v>
       </c>
       <c r="N51" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>32929</v>
       </c>
       <c r="O51" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>103195</v>
       </c>
       <c r="P51" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>88201</v>
       </c>
       <c r="Q51" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>73501</v>
       </c>
     </row>
@@ -8939,62 +8987,62 @@
         <v>54</v>
       </c>
       <c r="C52" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>600</v>
       </c>
       <c r="D52" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>300</v>
       </c>
       <c r="E52" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="F52" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>200</v>
       </c>
       <c r="G52" s="4">
-        <f t="shared" ref="G52:H52" si="35">F52</f>
+        <f t="shared" ref="G52:H52" si="38">F52</f>
         <v>200</v>
       </c>
       <c r="H52" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200</v>
       </c>
       <c r="I52" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>150</v>
       </c>
       <c r="J52" s="15">
-        <f t="shared" ref="J52:L52" si="36">I52</f>
+        <f t="shared" ref="J52:L52" si="39">I52</f>
         <v>150</v>
       </c>
       <c r="K52" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>150</v>
       </c>
       <c r="L52" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>150</v>
       </c>
       <c r="M52" s="1">
         <v>1</v>
       </c>
       <c r="N52" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>33601</v>
       </c>
       <c r="O52" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>107101</v>
       </c>
       <c r="P52" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>91601</v>
       </c>
       <c r="Q52" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>76351</v>
       </c>
     </row>
@@ -9006,62 +9054,62 @@
         <v>54</v>
       </c>
       <c r="C53" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>612</v>
       </c>
       <c r="D53" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>306</v>
       </c>
       <c r="E53" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>306</v>
       </c>
       <c r="F53" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>204</v>
       </c>
       <c r="G53" s="4">
-        <f t="shared" ref="G53:H53" si="37">F53</f>
+        <f t="shared" ref="G53:H53" si="40">F53</f>
         <v>204</v>
       </c>
       <c r="H53" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>204</v>
       </c>
       <c r="I53" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>153</v>
       </c>
       <c r="J53" s="15">
-        <f t="shared" ref="J53:L53" si="38">I53</f>
+        <f t="shared" ref="J53:L53" si="41">I53</f>
         <v>153</v>
       </c>
       <c r="K53" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>153</v>
       </c>
       <c r="L53" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>153</v>
       </c>
       <c r="M53" s="1">
         <v>1</v>
       </c>
       <c r="N53" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>34273</v>
       </c>
       <c r="O53" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>111079</v>
       </c>
       <c r="P53" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>95065</v>
       </c>
       <c r="Q53" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>79255</v>
       </c>
     </row>
@@ -9073,62 +9121,62 @@
         <v>54</v>
       </c>
       <c r="C54" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>624</v>
       </c>
       <c r="D54" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>312</v>
       </c>
       <c r="E54" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>312</v>
       </c>
       <c r="F54" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>208</v>
       </c>
       <c r="G54" s="4">
-        <f t="shared" ref="G54:H54" si="39">F54</f>
+        <f t="shared" ref="G54:H54" si="42">F54</f>
         <v>208</v>
       </c>
       <c r="H54" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>208</v>
       </c>
       <c r="I54" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>156</v>
       </c>
       <c r="J54" s="15">
-        <f t="shared" ref="J54:L54" si="40">I54</f>
+        <f t="shared" ref="J54:L54" si="43">I54</f>
         <v>156</v>
       </c>
       <c r="K54" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>156</v>
       </c>
       <c r="L54" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>156</v>
       </c>
       <c r="M54" s="1">
         <v>1</v>
       </c>
       <c r="N54" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>34945</v>
       </c>
       <c r="O54" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>115129</v>
       </c>
       <c r="P54" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>98593</v>
       </c>
       <c r="Q54" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>82213</v>
       </c>
     </row>
@@ -9140,62 +9188,62 @@
         <v>54</v>
       </c>
       <c r="C55" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>636</v>
       </c>
       <c r="D55" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>318</v>
       </c>
       <c r="E55" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>318</v>
       </c>
       <c r="F55" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>212</v>
       </c>
       <c r="G55" s="4">
-        <f t="shared" ref="G55:H55" si="41">F55</f>
+        <f t="shared" ref="G55:H55" si="44">F55</f>
         <v>212</v>
       </c>
       <c r="H55" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>212</v>
       </c>
       <c r="I55" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>159</v>
       </c>
       <c r="J55" s="15">
-        <f t="shared" ref="J55:L55" si="42">I55</f>
+        <f t="shared" ref="J55:L55" si="45">I55</f>
         <v>159</v>
       </c>
       <c r="K55" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>159</v>
       </c>
       <c r="L55" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>159</v>
       </c>
       <c r="M55" s="1">
         <v>1</v>
       </c>
       <c r="N55" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>35617</v>
       </c>
       <c r="O55" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>119251</v>
       </c>
       <c r="P55" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>102185</v>
       </c>
       <c r="Q55" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>85225</v>
       </c>
     </row>
@@ -9207,62 +9255,62 @@
         <v>54</v>
       </c>
       <c r="C56" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>648</v>
       </c>
       <c r="D56" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>324</v>
       </c>
       <c r="E56" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>324</v>
       </c>
       <c r="F56" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>216</v>
       </c>
       <c r="G56" s="4">
-        <f t="shared" ref="G56:H56" si="43">F56</f>
+        <f t="shared" ref="G56:H56" si="46">F56</f>
         <v>216</v>
       </c>
       <c r="H56" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>216</v>
       </c>
       <c r="I56" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>162</v>
       </c>
       <c r="J56" s="15">
-        <f t="shared" ref="J56:L56" si="44">I56</f>
+        <f t="shared" ref="J56:L56" si="47">I56</f>
         <v>162</v>
       </c>
       <c r="K56" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>162</v>
       </c>
       <c r="L56" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>162</v>
       </c>
       <c r="M56" s="1">
         <v>1</v>
       </c>
       <c r="N56" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>36289</v>
       </c>
       <c r="O56" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>123445</v>
       </c>
       <c r="P56" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>105841</v>
       </c>
       <c r="Q56" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>88291</v>
       </c>
     </row>
@@ -9274,62 +9322,62 @@
         <v>54</v>
       </c>
       <c r="C57" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>660</v>
       </c>
       <c r="D57" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>330</v>
       </c>
       <c r="E57" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>330</v>
       </c>
       <c r="F57" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>220</v>
       </c>
       <c r="G57" s="4">
-        <f t="shared" ref="G57:H57" si="45">F57</f>
+        <f t="shared" ref="G57:H57" si="48">F57</f>
         <v>220</v>
       </c>
       <c r="H57" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>220</v>
       </c>
       <c r="I57" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>165</v>
       </c>
       <c r="J57" s="15">
-        <f t="shared" ref="J57:L57" si="46">I57</f>
+        <f t="shared" ref="J57:L57" si="49">I57</f>
         <v>165</v>
       </c>
       <c r="K57" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>165</v>
       </c>
       <c r="L57" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>165</v>
       </c>
       <c r="M57" s="1">
         <v>1</v>
       </c>
       <c r="N57" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>36961</v>
       </c>
       <c r="O57" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>127711</v>
       </c>
       <c r="P57" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>109561</v>
       </c>
       <c r="Q57" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>91411</v>
       </c>
     </row>
@@ -9341,62 +9389,62 @@
         <v>54</v>
       </c>
       <c r="C58" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>672</v>
       </c>
       <c r="D58" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>336</v>
       </c>
       <c r="E58" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>336</v>
       </c>
       <c r="F58" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>224</v>
       </c>
       <c r="G58" s="4">
-        <f t="shared" ref="G58:H58" si="47">F58</f>
+        <f t="shared" ref="G58:H58" si="50">F58</f>
         <v>224</v>
       </c>
       <c r="H58" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>224</v>
       </c>
       <c r="I58" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>168</v>
       </c>
       <c r="J58" s="15">
-        <f t="shared" ref="J58:L58" si="48">I58</f>
+        <f t="shared" ref="J58:L58" si="51">I58</f>
         <v>168</v>
       </c>
       <c r="K58" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>168</v>
       </c>
       <c r="L58" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>168</v>
       </c>
       <c r="M58" s="1">
         <v>1</v>
       </c>
       <c r="N58" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>37633</v>
       </c>
       <c r="O58" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>132049</v>
       </c>
       <c r="P58" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>113345</v>
       </c>
       <c r="Q58" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>94585</v>
       </c>
     </row>
@@ -9408,62 +9456,62 @@
         <v>54</v>
       </c>
       <c r="C59" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>684</v>
       </c>
       <c r="D59" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>342</v>
       </c>
       <c r="E59" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>342</v>
       </c>
       <c r="F59" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>228</v>
       </c>
       <c r="G59" s="4">
-        <f t="shared" ref="G59:H59" si="49">F59</f>
+        <f t="shared" ref="G59:H59" si="52">F59</f>
         <v>228</v>
       </c>
       <c r="H59" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>228</v>
       </c>
       <c r="I59" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>171</v>
       </c>
       <c r="J59" s="15">
-        <f t="shared" ref="J59:L59" si="50">I59</f>
+        <f t="shared" ref="J59:L59" si="53">I59</f>
         <v>171</v>
       </c>
       <c r="K59" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>171</v>
       </c>
       <c r="L59" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>171</v>
       </c>
       <c r="M59" s="1">
         <v>1</v>
       </c>
       <c r="N59" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>38305</v>
       </c>
       <c r="O59" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>136459</v>
       </c>
       <c r="P59" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>117193</v>
       </c>
       <c r="Q59" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>97813</v>
       </c>
     </row>
@@ -9475,62 +9523,62 @@
         <v>54</v>
       </c>
       <c r="C60" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>696</v>
       </c>
       <c r="D60" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>348</v>
       </c>
       <c r="E60" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>348</v>
       </c>
       <c r="F60" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>232</v>
       </c>
       <c r="G60" s="4">
-        <f t="shared" ref="G60:H60" si="51">F60</f>
+        <f t="shared" ref="G60:H60" si="54">F60</f>
         <v>232</v>
       </c>
       <c r="H60" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>232</v>
       </c>
       <c r="I60" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>174</v>
       </c>
       <c r="J60" s="15">
-        <f t="shared" ref="J60:L60" si="52">I60</f>
+        <f t="shared" ref="J60:L60" si="55">I60</f>
         <v>174</v>
       </c>
       <c r="K60" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>174</v>
       </c>
       <c r="L60" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>174</v>
       </c>
       <c r="M60" s="1">
         <v>1</v>
       </c>
       <c r="N60" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>38977</v>
       </c>
       <c r="O60" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>140941</v>
       </c>
       <c r="P60" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>121105</v>
       </c>
       <c r="Q60" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>101095</v>
       </c>
     </row>
@@ -9542,62 +9590,62 @@
         <v>54</v>
       </c>
       <c r="C61" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>708</v>
       </c>
       <c r="D61" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>354</v>
       </c>
       <c r="E61" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>354</v>
       </c>
       <c r="F61" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>236</v>
       </c>
       <c r="G61" s="4">
-        <f t="shared" ref="G61:H61" si="53">F61</f>
+        <f t="shared" ref="G61:H61" si="56">F61</f>
         <v>236</v>
       </c>
       <c r="H61" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>236</v>
       </c>
       <c r="I61" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>177</v>
       </c>
       <c r="J61" s="15">
-        <f t="shared" ref="J61:L61" si="54">I61</f>
+        <f t="shared" ref="J61:L61" si="57">I61</f>
         <v>177</v>
       </c>
       <c r="K61" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>177</v>
       </c>
       <c r="L61" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>177</v>
       </c>
       <c r="M61" s="1">
         <v>1</v>
       </c>
       <c r="N61" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>39649</v>
       </c>
       <c r="O61" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>145495</v>
       </c>
       <c r="P61" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>125081</v>
       </c>
       <c r="Q61" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>104431</v>
       </c>
     </row>
@@ -9609,62 +9657,62 @@
         <v>54</v>
       </c>
       <c r="C62" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>720</v>
       </c>
       <c r="D62" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>360</v>
       </c>
       <c r="E62" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>360</v>
       </c>
       <c r="F62" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>240</v>
       </c>
       <c r="G62" s="4">
-        <f t="shared" ref="G62:H62" si="55">F62</f>
+        <f t="shared" ref="G62:H62" si="58">F62</f>
         <v>240</v>
       </c>
       <c r="H62" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>240</v>
       </c>
       <c r="I62" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>180</v>
       </c>
       <c r="J62" s="15">
-        <f t="shared" ref="J62:L62" si="56">I62</f>
+        <f t="shared" ref="J62:L62" si="59">I62</f>
         <v>180</v>
       </c>
       <c r="K62" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>180</v>
       </c>
       <c r="L62" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>180</v>
       </c>
       <c r="M62" s="1">
         <v>1</v>
       </c>
       <c r="N62" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>40321</v>
       </c>
       <c r="O62" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>150121</v>
       </c>
       <c r="P62" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>129121</v>
       </c>
       <c r="Q62" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>107821</v>
       </c>
     </row>
@@ -9676,62 +9724,62 @@
         <v>54</v>
       </c>
       <c r="C63" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>732</v>
       </c>
       <c r="D63" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>366</v>
       </c>
       <c r="E63" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>366</v>
       </c>
       <c r="F63" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>244</v>
       </c>
       <c r="G63" s="4">
-        <f t="shared" ref="G63:H63" si="57">F63</f>
+        <f t="shared" ref="G63:H63" si="60">F63</f>
         <v>244</v>
       </c>
       <c r="H63" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>244</v>
       </c>
       <c r="I63" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>183</v>
       </c>
       <c r="J63" s="15">
-        <f t="shared" ref="J63:L63" si="58">I63</f>
+        <f t="shared" ref="J63:L63" si="61">I63</f>
         <v>183</v>
       </c>
       <c r="K63" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>183</v>
       </c>
       <c r="L63" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>183</v>
       </c>
       <c r="M63" s="1">
         <v>1</v>
       </c>
       <c r="N63" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>40993</v>
       </c>
       <c r="O63" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>154819</v>
       </c>
       <c r="P63" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>133225</v>
       </c>
       <c r="Q63" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>111265</v>
       </c>
     </row>
@@ -9743,62 +9791,62 @@
         <v>54</v>
       </c>
       <c r="C64" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>744</v>
       </c>
       <c r="D64" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>372</v>
       </c>
       <c r="E64" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>372</v>
       </c>
       <c r="F64" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>248</v>
       </c>
       <c r="G64" s="4">
-        <f t="shared" ref="G64:H64" si="59">F64</f>
+        <f t="shared" ref="G64:H64" si="62">F64</f>
         <v>248</v>
       </c>
       <c r="H64" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>248</v>
       </c>
       <c r="I64" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>186</v>
       </c>
       <c r="J64" s="15">
-        <f t="shared" ref="J64:L64" si="60">I64</f>
+        <f t="shared" ref="J64:L64" si="63">I64</f>
         <v>186</v>
       </c>
       <c r="K64" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>186</v>
       </c>
       <c r="L64" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>186</v>
       </c>
       <c r="M64" s="1">
         <v>1</v>
       </c>
       <c r="N64" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>41665</v>
       </c>
       <c r="O64" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>159589</v>
       </c>
       <c r="P64" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>137393</v>
       </c>
       <c r="Q64" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>114763</v>
       </c>
     </row>
@@ -9810,62 +9858,62 @@
         <v>54</v>
       </c>
       <c r="C65" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>756</v>
       </c>
       <c r="D65" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>378</v>
       </c>
       <c r="E65" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>378</v>
       </c>
       <c r="F65" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>252</v>
       </c>
       <c r="G65" s="4">
-        <f t="shared" ref="G65:H65" si="61">F65</f>
+        <f t="shared" ref="G65:H65" si="64">F65</f>
         <v>252</v>
       </c>
       <c r="H65" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>252</v>
       </c>
       <c r="I65" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>189</v>
       </c>
       <c r="J65" s="15">
-        <f t="shared" ref="J65:L65" si="62">I65</f>
+        <f t="shared" ref="J65:L65" si="65">I65</f>
         <v>189</v>
       </c>
       <c r="K65" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>189</v>
       </c>
       <c r="L65" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>189</v>
       </c>
       <c r="M65" s="1">
         <v>1</v>
       </c>
       <c r="N65" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>42337</v>
       </c>
       <c r="O65" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>164431</v>
       </c>
       <c r="P65" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>141625</v>
       </c>
       <c r="Q65" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>118315</v>
       </c>
     </row>
@@ -9877,62 +9925,62 @@
         <v>54</v>
       </c>
       <c r="C66" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>768</v>
       </c>
       <c r="D66" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>384</v>
       </c>
       <c r="E66" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>384</v>
       </c>
       <c r="F66" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>256</v>
       </c>
       <c r="G66" s="4">
-        <f t="shared" ref="G66:H66" si="63">F66</f>
+        <f t="shared" ref="G66:H66" si="66">F66</f>
         <v>256</v>
       </c>
       <c r="H66" s="4">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>256</v>
       </c>
       <c r="I66" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>192</v>
       </c>
       <c r="J66" s="15">
-        <f t="shared" ref="J66:L66" si="64">I66</f>
+        <f t="shared" ref="J66:L66" si="67">I66</f>
         <v>192</v>
       </c>
       <c r="K66" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>192</v>
       </c>
       <c r="L66" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>192</v>
       </c>
       <c r="M66" s="1">
         <v>1</v>
       </c>
       <c r="N66" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>43009</v>
       </c>
       <c r="O66" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>169345</v>
       </c>
       <c r="P66" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>145921</v>
       </c>
       <c r="Q66" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>121921</v>
       </c>
     </row>
@@ -9944,62 +9992,62 @@
         <v>54</v>
       </c>
       <c r="C67" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>780</v>
       </c>
       <c r="D67" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>390</v>
       </c>
       <c r="E67" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>390</v>
       </c>
       <c r="F67" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>260</v>
       </c>
       <c r="G67" s="4">
-        <f t="shared" ref="G67:H67" si="65">F67</f>
+        <f t="shared" ref="G67:H67" si="68">F67</f>
         <v>260</v>
       </c>
       <c r="H67" s="4">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>260</v>
       </c>
       <c r="I67" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>195</v>
       </c>
       <c r="J67" s="15">
-        <f t="shared" ref="J67:L67" si="66">I67</f>
+        <f t="shared" ref="J67:L67" si="69">I67</f>
         <v>195</v>
       </c>
       <c r="K67" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>195</v>
       </c>
       <c r="L67" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>195</v>
       </c>
       <c r="M67" s="1">
         <v>1</v>
       </c>
       <c r="N67" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>43681</v>
       </c>
       <c r="O67" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>174331</v>
       </c>
       <c r="P67" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>150281</v>
       </c>
       <c r="Q67" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>125581</v>
       </c>
     </row>
@@ -10011,62 +10059,62 @@
         <v>54</v>
       </c>
       <c r="C68" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>792</v>
       </c>
       <c r="D68" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>396</v>
       </c>
       <c r="E68" s="16">
-        <f t="shared" ref="E68:E102" si="67">D68</f>
+        <f t="shared" ref="E68:E102" si="70">D68</f>
         <v>396</v>
       </c>
       <c r="F68" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>264</v>
       </c>
       <c r="G68" s="4">
-        <f t="shared" ref="G68:H68" si="68">F68</f>
+        <f t="shared" ref="G68:H68" si="71">F68</f>
         <v>264</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>264</v>
       </c>
       <c r="I68" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>198</v>
       </c>
       <c r="J68" s="15">
-        <f t="shared" ref="J68:L68" si="69">I68</f>
+        <f t="shared" ref="J68:L68" si="72">I68</f>
         <v>198</v>
       </c>
       <c r="K68" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>198</v>
       </c>
       <c r="L68" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>198</v>
       </c>
       <c r="M68" s="1">
         <v>1</v>
       </c>
       <c r="N68" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>44353</v>
       </c>
       <c r="O68" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>179389</v>
       </c>
       <c r="P68" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>154705</v>
       </c>
       <c r="Q68" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>129295</v>
       </c>
     </row>
@@ -10078,62 +10126,62 @@
         <v>54</v>
       </c>
       <c r="C69" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>804</v>
       </c>
       <c r="D69" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>402</v>
       </c>
       <c r="E69" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>402</v>
       </c>
       <c r="F69" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>268</v>
       </c>
       <c r="G69" s="4">
-        <f t="shared" ref="G69:H69" si="70">F69</f>
+        <f t="shared" ref="G69:H69" si="73">F69</f>
         <v>268</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>268</v>
       </c>
       <c r="I69" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>201</v>
       </c>
       <c r="J69" s="15">
-        <f t="shared" ref="J69:L69" si="71">I69</f>
+        <f t="shared" ref="J69:L69" si="74">I69</f>
         <v>201</v>
       </c>
       <c r="K69" s="15">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>201</v>
       </c>
       <c r="L69" s="15">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>201</v>
       </c>
       <c r="M69" s="1">
         <v>1</v>
       </c>
       <c r="N69" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>45025</v>
       </c>
       <c r="O69" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>184519</v>
       </c>
       <c r="P69" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>159193</v>
       </c>
       <c r="Q69" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>133063</v>
       </c>
     </row>
@@ -10145,62 +10193,62 @@
         <v>54</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>816</v>
       </c>
       <c r="D70" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>408</v>
       </c>
       <c r="E70" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>408</v>
       </c>
       <c r="F70" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>272</v>
       </c>
       <c r="G70" s="4">
-        <f t="shared" ref="G70:H70" si="72">F70</f>
+        <f t="shared" ref="G70:H70" si="75">F70</f>
         <v>272</v>
       </c>
       <c r="H70" s="4">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>272</v>
       </c>
       <c r="I70" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>204</v>
       </c>
       <c r="J70" s="15">
-        <f t="shared" ref="J70:L70" si="73">I70</f>
+        <f t="shared" ref="J70:L70" si="76">I70</f>
         <v>204</v>
       </c>
       <c r="K70" s="15">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>204</v>
       </c>
       <c r="L70" s="15">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>204</v>
       </c>
       <c r="M70" s="1">
         <v>1</v>
       </c>
       <c r="N70" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>45697</v>
       </c>
       <c r="O70" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>189721</v>
       </c>
       <c r="P70" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>163745</v>
       </c>
       <c r="Q70" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>136885</v>
       </c>
     </row>
@@ -10212,62 +10260,62 @@
         <v>54</v>
       </c>
       <c r="C71" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>828</v>
       </c>
       <c r="D71" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>414</v>
       </c>
       <c r="E71" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>414</v>
       </c>
       <c r="F71" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>276</v>
       </c>
       <c r="G71" s="4">
-        <f t="shared" ref="G71:H71" si="74">F71</f>
+        <f t="shared" ref="G71:H71" si="77">F71</f>
         <v>276</v>
       </c>
       <c r="H71" s="4">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>276</v>
       </c>
       <c r="I71" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>207</v>
       </c>
       <c r="J71" s="15">
-        <f t="shared" ref="J71:L71" si="75">I71</f>
+        <f t="shared" ref="J71:L71" si="78">I71</f>
         <v>207</v>
       </c>
       <c r="K71" s="15">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>207</v>
       </c>
       <c r="L71" s="15">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>207</v>
       </c>
       <c r="M71" s="1">
         <v>1</v>
       </c>
       <c r="N71" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>46369</v>
       </c>
       <c r="O71" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>194995</v>
       </c>
       <c r="P71" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>168361</v>
       </c>
       <c r="Q71" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>140761</v>
       </c>
     </row>
@@ -10279,62 +10327,62 @@
         <v>54</v>
       </c>
       <c r="C72" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>840</v>
       </c>
       <c r="D72" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>420</v>
       </c>
       <c r="E72" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>420</v>
       </c>
       <c r="F72" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>280</v>
       </c>
       <c r="G72" s="4">
-        <f t="shared" ref="G72:H72" si="76">F72</f>
+        <f t="shared" ref="G72:H72" si="79">F72</f>
         <v>280</v>
       </c>
       <c r="H72" s="4">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>280</v>
       </c>
       <c r="I72" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>210</v>
       </c>
       <c r="J72" s="15">
-        <f t="shared" ref="J72:L72" si="77">I72</f>
+        <f t="shared" ref="J72:L72" si="80">I72</f>
         <v>210</v>
       </c>
       <c r="K72" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>210</v>
       </c>
       <c r="L72" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>210</v>
       </c>
       <c r="M72" s="1">
         <v>1</v>
       </c>
       <c r="N72" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>47041</v>
       </c>
       <c r="O72" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>200341</v>
       </c>
       <c r="P72" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>173041</v>
       </c>
       <c r="Q72" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>144691</v>
       </c>
     </row>
@@ -10346,62 +10394,62 @@
         <v>54</v>
       </c>
       <c r="C73" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>852</v>
       </c>
       <c r="D73" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>426</v>
       </c>
       <c r="E73" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>426</v>
       </c>
       <c r="F73" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>284</v>
       </c>
       <c r="G73" s="4">
-        <f t="shared" ref="G73:H73" si="78">F73</f>
+        <f t="shared" ref="G73:H73" si="81">F73</f>
         <v>284</v>
       </c>
       <c r="H73" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>284</v>
       </c>
       <c r="I73" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>213</v>
       </c>
       <c r="J73" s="15">
-        <f t="shared" ref="J73:L73" si="79">I73</f>
+        <f t="shared" ref="J73:L73" si="82">I73</f>
         <v>213</v>
       </c>
       <c r="K73" s="15">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>213</v>
       </c>
       <c r="L73" s="15">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>213</v>
       </c>
       <c r="M73" s="1">
         <v>1</v>
       </c>
       <c r="N73" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>47713</v>
       </c>
       <c r="O73" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>205759</v>
       </c>
       <c r="P73" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>177785</v>
       </c>
       <c r="Q73" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>148675</v>
       </c>
     </row>
@@ -10413,62 +10461,62 @@
         <v>54</v>
       </c>
       <c r="C74" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>864</v>
       </c>
       <c r="D74" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>432</v>
       </c>
       <c r="E74" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>432</v>
       </c>
       <c r="F74" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>288</v>
       </c>
       <c r="G74" s="4">
-        <f t="shared" ref="G74:H74" si="80">F74</f>
+        <f t="shared" ref="G74:H74" si="83">F74</f>
         <v>288</v>
       </c>
       <c r="H74" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>288</v>
       </c>
       <c r="I74" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>216</v>
       </c>
       <c r="J74" s="15">
-        <f t="shared" ref="J74:L74" si="81">I74</f>
+        <f t="shared" ref="J74:L74" si="84">I74</f>
         <v>216</v>
       </c>
       <c r="K74" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>216</v>
       </c>
       <c r="L74" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>216</v>
       </c>
       <c r="M74" s="1">
         <v>1</v>
       </c>
       <c r="N74" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>48385</v>
       </c>
       <c r="O74" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>211249</v>
       </c>
       <c r="P74" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>182593</v>
       </c>
       <c r="Q74" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>152713</v>
       </c>
     </row>
@@ -10480,62 +10528,62 @@
         <v>54</v>
       </c>
       <c r="C75" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>876</v>
       </c>
       <c r="D75" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>438</v>
       </c>
       <c r="E75" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>438</v>
       </c>
       <c r="F75" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>292</v>
       </c>
       <c r="G75" s="4">
-        <f t="shared" ref="G75:H75" si="82">F75</f>
+        <f t="shared" ref="G75:H75" si="85">F75</f>
         <v>292</v>
       </c>
       <c r="H75" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>292</v>
       </c>
       <c r="I75" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>219</v>
       </c>
       <c r="J75" s="15">
-        <f t="shared" ref="J75:L75" si="83">I75</f>
+        <f t="shared" ref="J75:L75" si="86">I75</f>
         <v>219</v>
       </c>
       <c r="K75" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>219</v>
       </c>
       <c r="L75" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>219</v>
       </c>
       <c r="M75" s="1">
         <v>1</v>
       </c>
       <c r="N75" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>49057</v>
       </c>
       <c r="O75" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>216811</v>
       </c>
       <c r="P75" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>187465</v>
       </c>
       <c r="Q75" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>156805</v>
       </c>
     </row>
@@ -10547,62 +10595,62 @@
         <v>54</v>
       </c>
       <c r="C76" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>888</v>
       </c>
       <c r="D76" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>444</v>
       </c>
       <c r="E76" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>444</v>
       </c>
       <c r="F76" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>296</v>
       </c>
       <c r="G76" s="4">
-        <f t="shared" ref="G76:H76" si="84">F76</f>
+        <f t="shared" ref="G76:H76" si="87">F76</f>
         <v>296</v>
       </c>
       <c r="H76" s="4">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>296</v>
       </c>
       <c r="I76" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>222</v>
       </c>
       <c r="J76" s="15">
-        <f t="shared" ref="J76:L76" si="85">I76</f>
+        <f t="shared" ref="J76:L76" si="88">I76</f>
         <v>222</v>
       </c>
       <c r="K76" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>222</v>
       </c>
       <c r="L76" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>222</v>
       </c>
       <c r="M76" s="1">
         <v>1</v>
       </c>
       <c r="N76" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>49729</v>
       </c>
       <c r="O76" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>222445</v>
       </c>
       <c r="P76" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>192401</v>
       </c>
       <c r="Q76" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>160951</v>
       </c>
     </row>
@@ -10614,62 +10662,62 @@
         <v>54</v>
       </c>
       <c r="C77" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>900</v>
       </c>
       <c r="D77" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>450</v>
       </c>
       <c r="E77" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>450</v>
       </c>
       <c r="F77" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>300</v>
       </c>
       <c r="G77" s="4">
-        <f t="shared" ref="G77:H77" si="86">F77</f>
+        <f t="shared" ref="G77:H77" si="89">F77</f>
         <v>300</v>
       </c>
       <c r="H77" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>300</v>
       </c>
       <c r="I77" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>225</v>
       </c>
       <c r="J77" s="15">
-        <f t="shared" ref="J77:L77" si="87">I77</f>
+        <f t="shared" ref="J77:L77" si="90">I77</f>
         <v>225</v>
       </c>
       <c r="K77" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>225</v>
       </c>
       <c r="L77" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>225</v>
       </c>
       <c r="M77" s="1">
         <v>1</v>
       </c>
       <c r="N77" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>50401</v>
       </c>
       <c r="O77" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>228151</v>
       </c>
       <c r="P77" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>197401</v>
       </c>
       <c r="Q77" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>165151</v>
       </c>
     </row>
@@ -10681,62 +10729,62 @@
         <v>54</v>
       </c>
       <c r="C78" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>912</v>
       </c>
       <c r="D78" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>456</v>
       </c>
       <c r="E78" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>456</v>
       </c>
       <c r="F78" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>304</v>
       </c>
       <c r="G78" s="4">
-        <f t="shared" ref="G78:H78" si="88">F78</f>
+        <f t="shared" ref="G78:H78" si="91">F78</f>
         <v>304</v>
       </c>
       <c r="H78" s="4">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>304</v>
       </c>
       <c r="I78" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>228</v>
       </c>
       <c r="J78" s="15">
-        <f t="shared" ref="J78:L78" si="89">I78</f>
+        <f t="shared" ref="J78:L78" si="92">I78</f>
         <v>228</v>
       </c>
       <c r="K78" s="15">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>228</v>
       </c>
       <c r="L78" s="15">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>228</v>
       </c>
       <c r="M78" s="1">
         <v>1</v>
       </c>
       <c r="N78" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>51073</v>
       </c>
       <c r="O78" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>233929</v>
       </c>
       <c r="P78" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>202465</v>
       </c>
       <c r="Q78" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>169405</v>
       </c>
     </row>
@@ -10748,62 +10796,62 @@
         <v>54</v>
       </c>
       <c r="C79" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>924</v>
       </c>
       <c r="D79" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>462</v>
       </c>
       <c r="E79" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>462</v>
       </c>
       <c r="F79" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>308</v>
       </c>
       <c r="G79" s="4">
-        <f t="shared" ref="G79:H79" si="90">F79</f>
+        <f t="shared" ref="G79:H79" si="93">F79</f>
         <v>308</v>
       </c>
       <c r="H79" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>308</v>
       </c>
       <c r="I79" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>231</v>
       </c>
       <c r="J79" s="15">
-        <f t="shared" ref="J79:L79" si="91">I79</f>
+        <f t="shared" ref="J79:L79" si="94">I79</f>
         <v>231</v>
       </c>
       <c r="K79" s="15">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>231</v>
       </c>
       <c r="L79" s="15">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>231</v>
       </c>
       <c r="M79" s="1">
         <v>1</v>
       </c>
       <c r="N79" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>51745</v>
       </c>
       <c r="O79" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>239779</v>
       </c>
       <c r="P79" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>207593</v>
       </c>
       <c r="Q79" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>173713</v>
       </c>
     </row>
@@ -10815,62 +10863,62 @@
         <v>54</v>
       </c>
       <c r="C80" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>936</v>
       </c>
       <c r="D80" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>468</v>
       </c>
       <c r="E80" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>468</v>
       </c>
       <c r="F80" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>312</v>
       </c>
       <c r="G80" s="4">
-        <f t="shared" ref="G80:H80" si="92">F80</f>
+        <f t="shared" ref="G80:H80" si="95">F80</f>
         <v>312</v>
       </c>
       <c r="H80" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>312</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>234</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" ref="J80:L80" si="93">I80</f>
+        <f t="shared" ref="J80:L80" si="96">I80</f>
         <v>234</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>234</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>234</v>
       </c>
       <c r="M80" s="1">
         <v>1</v>
       </c>
       <c r="N80" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>52417</v>
       </c>
       <c r="O80" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>245701</v>
       </c>
       <c r="P80" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>212785</v>
       </c>
       <c r="Q80" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>178075</v>
       </c>
     </row>
@@ -10882,62 +10930,62 @@
         <v>54</v>
       </c>
       <c r="C81" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>948</v>
       </c>
       <c r="D81" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>474</v>
       </c>
       <c r="E81" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>474</v>
       </c>
       <c r="F81" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>316</v>
       </c>
       <c r="G81" s="4">
-        <f t="shared" ref="G81:H81" si="94">F81</f>
+        <f t="shared" ref="G81:H81" si="97">F81</f>
         <v>316</v>
       </c>
       <c r="H81" s="4">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>316</v>
       </c>
       <c r="I81" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>237</v>
       </c>
       <c r="J81" s="15">
-        <f t="shared" ref="J81:L81" si="95">I81</f>
+        <f t="shared" ref="J81:L81" si="98">I81</f>
         <v>237</v>
       </c>
       <c r="K81" s="15">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>237</v>
       </c>
       <c r="L81" s="15">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>237</v>
       </c>
       <c r="M81" s="1">
         <v>1</v>
       </c>
       <c r="N81" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>53089</v>
       </c>
       <c r="O81" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>251695</v>
       </c>
       <c r="P81" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>218041</v>
       </c>
       <c r="Q81" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>182491</v>
       </c>
     </row>
@@ -10949,62 +10997,62 @@
         <v>54</v>
       </c>
       <c r="C82" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>960</v>
       </c>
       <c r="D82" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>480</v>
       </c>
       <c r="E82" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>480</v>
       </c>
       <c r="F82" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>320</v>
       </c>
       <c r="G82" s="4">
-        <f t="shared" ref="G82:H82" si="96">F82</f>
+        <f t="shared" ref="G82:H82" si="99">F82</f>
         <v>320</v>
       </c>
       <c r="H82" s="4">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>320</v>
       </c>
       <c r="I82" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>240</v>
       </c>
       <c r="J82" s="15">
-        <f t="shared" ref="J82:L82" si="97">I82</f>
+        <f t="shared" ref="J82:L82" si="100">I82</f>
         <v>240</v>
       </c>
       <c r="K82" s="15">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>240</v>
       </c>
       <c r="L82" s="15">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>240</v>
       </c>
       <c r="M82" s="1">
         <v>1</v>
       </c>
       <c r="N82" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>53761</v>
       </c>
       <c r="O82" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>257761</v>
       </c>
       <c r="P82" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>223361</v>
       </c>
       <c r="Q82" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>186961</v>
       </c>
     </row>
@@ -11016,62 +11064,62 @@
         <v>54</v>
       </c>
       <c r="C83" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>972</v>
       </c>
       <c r="D83" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>486</v>
       </c>
       <c r="E83" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>486</v>
       </c>
       <c r="F83" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>324</v>
       </c>
       <c r="G83" s="4">
-        <f t="shared" ref="G83:H83" si="98">F83</f>
+        <f t="shared" ref="G83:H83" si="101">F83</f>
         <v>324</v>
       </c>
       <c r="H83" s="4">
-        <f t="shared" si="98"/>
+        <f t="shared" si="101"/>
         <v>324</v>
       </c>
       <c r="I83" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>243</v>
       </c>
       <c r="J83" s="15">
-        <f t="shared" ref="J83:L83" si="99">I83</f>
+        <f t="shared" ref="J83:L83" si="102">I83</f>
         <v>243</v>
       </c>
       <c r="K83" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="102"/>
         <v>243</v>
       </c>
       <c r="L83" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="102"/>
         <v>243</v>
       </c>
       <c r="M83" s="1">
         <v>1</v>
       </c>
       <c r="N83" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>54433</v>
       </c>
       <c r="O83" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>263899</v>
       </c>
       <c r="P83" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>228745</v>
       </c>
       <c r="Q83" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>191485</v>
       </c>
     </row>
@@ -11083,62 +11131,62 @@
         <v>54</v>
       </c>
       <c r="C84" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>984</v>
       </c>
       <c r="D84" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>492</v>
       </c>
       <c r="E84" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>492</v>
       </c>
       <c r="F84" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>328</v>
       </c>
       <c r="G84" s="4">
-        <f t="shared" ref="G84:H84" si="100">F84</f>
+        <f t="shared" ref="G84:H84" si="103">F84</f>
         <v>328</v>
       </c>
       <c r="H84" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>328</v>
       </c>
       <c r="I84" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>246</v>
       </c>
       <c r="J84" s="15">
-        <f t="shared" ref="J84:L84" si="101">I84</f>
+        <f t="shared" ref="J84:L84" si="104">I84</f>
         <v>246</v>
       </c>
       <c r="K84" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="104"/>
         <v>246</v>
       </c>
       <c r="L84" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="104"/>
         <v>246</v>
       </c>
       <c r="M84" s="1">
         <v>1</v>
       </c>
       <c r="N84" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>55105</v>
       </c>
       <c r="O84" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>270109</v>
       </c>
       <c r="P84" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>234193</v>
       </c>
       <c r="Q84" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>196063</v>
       </c>
     </row>
@@ -11150,62 +11198,62 @@
         <v>54</v>
       </c>
       <c r="C85" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>996</v>
       </c>
       <c r="D85" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>498</v>
       </c>
       <c r="E85" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>498</v>
       </c>
       <c r="F85" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>332</v>
       </c>
       <c r="G85" s="4">
-        <f t="shared" ref="G85:H85" si="102">F85</f>
+        <f t="shared" ref="G85:H85" si="105">F85</f>
         <v>332</v>
       </c>
       <c r="H85" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="105"/>
         <v>332</v>
       </c>
       <c r="I85" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>249</v>
       </c>
       <c r="J85" s="15">
-        <f t="shared" ref="J85:L85" si="103">I85</f>
+        <f t="shared" ref="J85:L85" si="106">I85</f>
         <v>249</v>
       </c>
       <c r="K85" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="106"/>
         <v>249</v>
       </c>
       <c r="L85" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="106"/>
         <v>249</v>
       </c>
       <c r="M85" s="1">
         <v>1</v>
       </c>
       <c r="N85" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>55777</v>
       </c>
       <c r="O85" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>276391</v>
       </c>
       <c r="P85" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>239705</v>
       </c>
       <c r="Q85" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>200695</v>
       </c>
     </row>
@@ -11217,62 +11265,62 @@
         <v>54</v>
       </c>
       <c r="C86" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1008</v>
       </c>
       <c r="D86" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>504</v>
       </c>
       <c r="E86" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>504</v>
       </c>
       <c r="F86" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>336</v>
       </c>
       <c r="G86" s="4">
-        <f t="shared" ref="G86:H86" si="104">F86</f>
+        <f t="shared" ref="G86:H86" si="107">F86</f>
         <v>336</v>
       </c>
       <c r="H86" s="4">
-        <f t="shared" si="104"/>
+        <f t="shared" si="107"/>
         <v>336</v>
       </c>
       <c r="I86" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>252</v>
       </c>
       <c r="J86" s="15">
-        <f t="shared" ref="J86:L86" si="105">I86</f>
+        <f t="shared" ref="J86:L86" si="108">I86</f>
         <v>252</v>
       </c>
       <c r="K86" s="15">
-        <f t="shared" si="105"/>
+        <f t="shared" si="108"/>
         <v>252</v>
       </c>
       <c r="L86" s="15">
-        <f t="shared" si="105"/>
+        <f t="shared" si="108"/>
         <v>252</v>
       </c>
       <c r="M86" s="1">
         <v>1</v>
       </c>
       <c r="N86" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>56449</v>
       </c>
       <c r="O86" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>282745</v>
       </c>
       <c r="P86" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>245281</v>
       </c>
       <c r="Q86" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>205381</v>
       </c>
     </row>
@@ -11284,62 +11332,62 @@
         <v>54</v>
       </c>
       <c r="C87" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1020</v>
       </c>
       <c r="D87" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>510</v>
       </c>
       <c r="E87" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>510</v>
       </c>
       <c r="F87" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>340</v>
       </c>
       <c r="G87" s="4">
-        <f t="shared" ref="G87:H87" si="106">F87</f>
+        <f t="shared" ref="G87:H87" si="109">F87</f>
         <v>340</v>
       </c>
       <c r="H87" s="4">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>340</v>
       </c>
       <c r="I87" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>255</v>
       </c>
       <c r="J87" s="15">
-        <f t="shared" ref="J87:L87" si="107">I87</f>
+        <f t="shared" ref="J87:L87" si="110">I87</f>
         <v>255</v>
       </c>
       <c r="K87" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>255</v>
       </c>
       <c r="L87" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>255</v>
       </c>
       <c r="M87" s="1">
         <v>1</v>
       </c>
       <c r="N87" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>57121</v>
       </c>
       <c r="O87" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>289171</v>
       </c>
       <c r="P87" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>250921</v>
       </c>
       <c r="Q87" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>210121</v>
       </c>
     </row>
@@ -11351,62 +11399,62 @@
         <v>54</v>
       </c>
       <c r="C88" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1032</v>
       </c>
       <c r="D88" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>516</v>
       </c>
       <c r="E88" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>516</v>
       </c>
       <c r="F88" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>344</v>
       </c>
       <c r="G88" s="4">
-        <f t="shared" ref="G88:H88" si="108">F88</f>
+        <f t="shared" ref="G88:H88" si="111">F88</f>
         <v>344</v>
       </c>
       <c r="H88" s="4">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>344</v>
       </c>
       <c r="I88" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>258</v>
       </c>
       <c r="J88" s="15">
-        <f t="shared" ref="J88:L88" si="109">I88</f>
+        <f t="shared" ref="J88:L88" si="112">I88</f>
         <v>258</v>
       </c>
       <c r="K88" s="15">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>258</v>
       </c>
       <c r="L88" s="15">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>258</v>
       </c>
       <c r="M88" s="1">
         <v>1</v>
       </c>
       <c r="N88" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>57793</v>
       </c>
       <c r="O88" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>295669</v>
       </c>
       <c r="P88" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>256625</v>
       </c>
       <c r="Q88" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>214915</v>
       </c>
     </row>
@@ -11418,62 +11466,62 @@
         <v>54</v>
       </c>
       <c r="C89" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1044</v>
       </c>
       <c r="D89" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>522</v>
       </c>
       <c r="E89" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>522</v>
       </c>
       <c r="F89" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>348</v>
       </c>
       <c r="G89" s="4">
-        <f t="shared" ref="G89:H89" si="110">F89</f>
+        <f t="shared" ref="G89:H89" si="113">F89</f>
         <v>348</v>
       </c>
       <c r="H89" s="4">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>348</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>261</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" ref="J89:L89" si="111">I89</f>
+        <f t="shared" ref="J89:L89" si="114">I89</f>
         <v>261</v>
       </c>
       <c r="K89" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>261</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>261</v>
       </c>
       <c r="M89" s="1">
         <v>1</v>
       </c>
       <c r="N89" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>58465</v>
       </c>
       <c r="O89" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>302239</v>
       </c>
       <c r="P89" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>262393</v>
       </c>
       <c r="Q89" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>219763</v>
       </c>
     </row>
@@ -11485,62 +11533,62 @@
         <v>54</v>
       </c>
       <c r="C90" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1056</v>
       </c>
       <c r="D90" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>528</v>
       </c>
       <c r="E90" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>528</v>
       </c>
       <c r="F90" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>352</v>
       </c>
       <c r="G90" s="4">
-        <f t="shared" ref="G90:H90" si="112">F90</f>
+        <f t="shared" ref="G90:H90" si="115">F90</f>
         <v>352</v>
       </c>
       <c r="H90" s="4">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>352</v>
       </c>
       <c r="I90" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>264</v>
       </c>
       <c r="J90" s="15">
-        <f t="shared" ref="J90:L90" si="113">I90</f>
+        <f t="shared" ref="J90:L90" si="116">I90</f>
         <v>264</v>
       </c>
       <c r="K90" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>264</v>
       </c>
       <c r="L90" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>264</v>
       </c>
       <c r="M90" s="1">
         <v>1</v>
       </c>
       <c r="N90" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>59137</v>
       </c>
       <c r="O90" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>308881</v>
       </c>
       <c r="P90" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>268225</v>
       </c>
       <c r="Q90" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>224665</v>
       </c>
     </row>
@@ -11552,62 +11600,62 @@
         <v>54</v>
       </c>
       <c r="C91" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1068</v>
       </c>
       <c r="D91" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>534</v>
       </c>
       <c r="E91" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>534</v>
       </c>
       <c r="F91" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>356</v>
       </c>
       <c r="G91" s="4">
-        <f t="shared" ref="G91:H91" si="114">F91</f>
+        <f t="shared" ref="G91:H91" si="117">F91</f>
         <v>356</v>
       </c>
       <c r="H91" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>356</v>
       </c>
       <c r="I91" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>267</v>
       </c>
       <c r="J91" s="15">
-        <f t="shared" ref="J91:L91" si="115">I91</f>
+        <f t="shared" ref="J91:L91" si="118">I91</f>
         <v>267</v>
       </c>
       <c r="K91" s="15">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>267</v>
       </c>
       <c r="L91" s="15">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>267</v>
       </c>
       <c r="M91" s="1">
         <v>1</v>
       </c>
       <c r="N91" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>59809</v>
       </c>
       <c r="O91" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>315595</v>
       </c>
       <c r="P91" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>274121</v>
       </c>
       <c r="Q91" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>229621</v>
       </c>
     </row>
@@ -11619,62 +11667,62 @@
         <v>54</v>
       </c>
       <c r="C92" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1080</v>
       </c>
       <c r="D92" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>540</v>
       </c>
       <c r="E92" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>540</v>
       </c>
       <c r="F92" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>360</v>
       </c>
       <c r="G92" s="4">
-        <f t="shared" ref="G92:H92" si="116">F92</f>
+        <f t="shared" ref="G92:H92" si="119">F92</f>
         <v>360</v>
       </c>
       <c r="H92" s="4">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>360</v>
       </c>
       <c r="I92" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>270</v>
       </c>
       <c r="J92" s="15">
-        <f t="shared" ref="J92:L92" si="117">I92</f>
+        <f t="shared" ref="J92:L92" si="120">I92</f>
         <v>270</v>
       </c>
       <c r="K92" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="120"/>
         <v>270</v>
       </c>
       <c r="L92" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="120"/>
         <v>270</v>
       </c>
       <c r="M92" s="1">
         <v>1</v>
       </c>
       <c r="N92" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>60481</v>
       </c>
       <c r="O92" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>322381</v>
       </c>
       <c r="P92" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>280081</v>
       </c>
       <c r="Q92" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>234631</v>
       </c>
     </row>
@@ -11686,62 +11734,62 @@
         <v>54</v>
       </c>
       <c r="C93" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1092</v>
       </c>
       <c r="D93" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>546</v>
       </c>
       <c r="E93" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>546</v>
       </c>
       <c r="F93" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>364</v>
       </c>
       <c r="G93" s="4">
-        <f t="shared" ref="G93:H93" si="118">F93</f>
+        <f t="shared" ref="G93:H93" si="121">F93</f>
         <v>364</v>
       </c>
       <c r="H93" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>364</v>
       </c>
       <c r="I93" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>273</v>
       </c>
       <c r="J93" s="15">
-        <f t="shared" ref="J93:L93" si="119">I93</f>
+        <f t="shared" ref="J93:L93" si="122">I93</f>
         <v>273</v>
       </c>
       <c r="K93" s="15">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>273</v>
       </c>
       <c r="L93" s="15">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>273</v>
       </c>
       <c r="M93" s="1">
         <v>1</v>
       </c>
       <c r="N93" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>61153</v>
       </c>
       <c r="O93" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>329239</v>
       </c>
       <c r="P93" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>286105</v>
       </c>
       <c r="Q93" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>239695</v>
       </c>
     </row>
@@ -11753,62 +11801,62 @@
         <v>54</v>
       </c>
       <c r="C94" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1104</v>
       </c>
       <c r="D94" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>552</v>
       </c>
       <c r="E94" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>552</v>
       </c>
       <c r="F94" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>368</v>
       </c>
       <c r="G94" s="4">
-        <f t="shared" ref="G94:H94" si="120">F94</f>
+        <f t="shared" ref="G94:H94" si="123">F94</f>
         <v>368</v>
       </c>
       <c r="H94" s="4">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>368</v>
       </c>
       <c r="I94" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>276</v>
       </c>
       <c r="J94" s="15">
-        <f t="shared" ref="J94:L94" si="121">I94</f>
+        <f t="shared" ref="J94:L94" si="124">I94</f>
         <v>276</v>
       </c>
       <c r="K94" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>276</v>
       </c>
       <c r="L94" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>276</v>
       </c>
       <c r="M94" s="1">
         <v>1</v>
       </c>
       <c r="N94" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>61825</v>
       </c>
       <c r="O94" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>336169</v>
       </c>
       <c r="P94" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>292193</v>
       </c>
       <c r="Q94" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>244813</v>
       </c>
     </row>
@@ -11820,62 +11868,62 @@
         <v>54</v>
       </c>
       <c r="C95" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1116</v>
       </c>
       <c r="D95" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>558</v>
       </c>
       <c r="E95" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>558</v>
       </c>
       <c r="F95" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>372</v>
       </c>
       <c r="G95" s="4">
-        <f t="shared" ref="G95:H95" si="122">F95</f>
+        <f t="shared" ref="G95:H95" si="125">F95</f>
         <v>372</v>
       </c>
       <c r="H95" s="4">
-        <f t="shared" si="122"/>
+        <f t="shared" si="125"/>
         <v>372</v>
       </c>
       <c r="I95" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>279</v>
       </c>
       <c r="J95" s="15">
-        <f t="shared" ref="J95:L95" si="123">I95</f>
+        <f t="shared" ref="J95:L95" si="126">I95</f>
         <v>279</v>
       </c>
       <c r="K95" s="15">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>279</v>
       </c>
       <c r="L95" s="15">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>279</v>
       </c>
       <c r="M95" s="1">
         <v>1</v>
       </c>
       <c r="N95" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>62497</v>
       </c>
       <c r="O95" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>343171</v>
       </c>
       <c r="P95" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>298345</v>
       </c>
       <c r="Q95" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>249985</v>
       </c>
     </row>
@@ -11887,62 +11935,62 @@
         <v>54</v>
       </c>
       <c r="C96" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1128</v>
       </c>
       <c r="D96" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>564</v>
       </c>
       <c r="E96" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>564</v>
       </c>
       <c r="F96" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>376</v>
       </c>
       <c r="G96" s="4">
-        <f t="shared" ref="G96:H96" si="124">F96</f>
+        <f t="shared" ref="G96:H96" si="127">F96</f>
         <v>376</v>
       </c>
       <c r="H96" s="4">
-        <f t="shared" si="124"/>
+        <f t="shared" si="127"/>
         <v>376</v>
       </c>
       <c r="I96" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>282</v>
       </c>
       <c r="J96" s="15">
-        <f t="shared" ref="J96:L96" si="125">I96</f>
+        <f t="shared" ref="J96:L96" si="128">I96</f>
         <v>282</v>
       </c>
       <c r="K96" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>282</v>
       </c>
       <c r="L96" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>282</v>
       </c>
       <c r="M96" s="1">
         <v>1</v>
       </c>
       <c r="N96" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>63169</v>
       </c>
       <c r="O96" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>350245</v>
       </c>
       <c r="P96" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>304561</v>
       </c>
       <c r="Q96" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>255211</v>
       </c>
     </row>
@@ -11954,62 +12002,62 @@
         <v>54</v>
       </c>
       <c r="C97" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1140</v>
       </c>
       <c r="D97" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>570</v>
       </c>
       <c r="E97" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>570</v>
       </c>
       <c r="F97" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>380</v>
       </c>
       <c r="G97" s="4">
-        <f t="shared" ref="G97:H97" si="126">F97</f>
+        <f t="shared" ref="G97:H97" si="129">F97</f>
         <v>380</v>
       </c>
       <c r="H97" s="4">
-        <f t="shared" si="126"/>
+        <f t="shared" si="129"/>
         <v>380</v>
       </c>
       <c r="I97" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>285</v>
       </c>
       <c r="J97" s="15">
-        <f t="shared" ref="J97:L97" si="127">I97</f>
+        <f t="shared" ref="J97:L97" si="130">I97</f>
         <v>285</v>
       </c>
       <c r="K97" s="15">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>285</v>
       </c>
       <c r="L97" s="15">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>285</v>
       </c>
       <c r="M97" s="1">
         <v>1</v>
       </c>
       <c r="N97" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>63841</v>
       </c>
       <c r="O97" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>357391</v>
       </c>
       <c r="P97" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>310841</v>
       </c>
       <c r="Q97" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>260491</v>
       </c>
     </row>
@@ -12021,62 +12069,62 @@
         <v>54</v>
       </c>
       <c r="C98" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1152</v>
       </c>
       <c r="D98" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>576</v>
       </c>
       <c r="E98" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>576</v>
       </c>
       <c r="F98" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>384</v>
       </c>
       <c r="G98" s="4">
-        <f t="shared" ref="G98:H98" si="128">F98</f>
+        <f t="shared" ref="G98:H98" si="131">F98</f>
         <v>384</v>
       </c>
       <c r="H98" s="4">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>384</v>
       </c>
       <c r="I98" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>288</v>
       </c>
       <c r="J98" s="15">
-        <f t="shared" ref="J98:L98" si="129">I98</f>
+        <f t="shared" ref="J98:L98" si="132">I98</f>
         <v>288</v>
       </c>
       <c r="K98" s="15">
-        <f t="shared" si="129"/>
+        <f t="shared" si="132"/>
         <v>288</v>
       </c>
       <c r="L98" s="15">
-        <f t="shared" si="129"/>
+        <f t="shared" si="132"/>
         <v>288</v>
       </c>
       <c r="M98" s="1">
         <v>1</v>
       </c>
       <c r="N98" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>64513</v>
       </c>
       <c r="O98" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>364609</v>
       </c>
       <c r="P98" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>317185</v>
       </c>
       <c r="Q98" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>265825</v>
       </c>
     </row>
@@ -12088,62 +12136,62 @@
         <v>54</v>
       </c>
       <c r="C99" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1164</v>
       </c>
       <c r="D99" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>582</v>
       </c>
       <c r="E99" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>582</v>
       </c>
       <c r="F99" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>388</v>
       </c>
       <c r="G99" s="4">
-        <f t="shared" ref="G99:H99" si="130">F99</f>
+        <f t="shared" ref="G99:H99" si="133">F99</f>
         <v>388</v>
       </c>
       <c r="H99" s="4">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>388</v>
       </c>
       <c r="I99" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>291</v>
       </c>
       <c r="J99" s="15">
-        <f t="shared" ref="J99:L99" si="131">I99</f>
+        <f t="shared" ref="J99:L99" si="134">I99</f>
         <v>291</v>
       </c>
       <c r="K99" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>291</v>
       </c>
       <c r="L99" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>291</v>
       </c>
       <c r="M99" s="1">
         <v>1</v>
       </c>
       <c r="N99" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>65185</v>
       </c>
       <c r="O99" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>371899</v>
       </c>
       <c r="P99" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>323593</v>
       </c>
       <c r="Q99" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>271213</v>
       </c>
     </row>
@@ -12155,62 +12203,62 @@
         <v>54</v>
       </c>
       <c r="C100" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1176</v>
       </c>
       <c r="D100" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>588</v>
       </c>
       <c r="E100" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>588</v>
       </c>
       <c r="F100" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>392</v>
       </c>
       <c r="G100" s="4">
-        <f t="shared" ref="G100:H100" si="132">F100</f>
+        <f t="shared" ref="G100:H100" si="135">F100</f>
         <v>392</v>
       </c>
       <c r="H100" s="4">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>392</v>
       </c>
       <c r="I100" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>294</v>
       </c>
       <c r="J100" s="15">
-        <f t="shared" ref="J100:L100" si="133">I100</f>
+        <f t="shared" ref="J100:L100" si="136">I100</f>
         <v>294</v>
       </c>
       <c r="K100" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>294</v>
       </c>
       <c r="L100" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>294</v>
       </c>
       <c r="M100" s="1">
         <v>1</v>
       </c>
       <c r="N100" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>65857</v>
       </c>
       <c r="O100" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>379261</v>
       </c>
       <c r="P100" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>330065</v>
       </c>
       <c r="Q100" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>276655</v>
       </c>
     </row>
@@ -12222,62 +12270,62 @@
         <v>54</v>
       </c>
       <c r="C101" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1188</v>
       </c>
       <c r="D101" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>594</v>
       </c>
       <c r="E101" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>594</v>
       </c>
       <c r="F101" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>396</v>
       </c>
       <c r="G101" s="4">
-        <f t="shared" ref="G101:H101" si="134">F101</f>
+        <f t="shared" ref="G101:H101" si="137">F101</f>
         <v>396</v>
       </c>
       <c r="H101" s="4">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>396</v>
       </c>
       <c r="I101" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>297</v>
       </c>
       <c r="J101" s="15">
-        <f t="shared" ref="J101:L101" si="135">I101</f>
+        <f t="shared" ref="J101:L101" si="138">I101</f>
         <v>297</v>
       </c>
       <c r="K101" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>297</v>
       </c>
       <c r="L101" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>297</v>
       </c>
       <c r="M101" s="1">
         <v>1</v>
       </c>
       <c r="N101" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>66529</v>
       </c>
       <c r="O101" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>386695</v>
       </c>
       <c r="P101" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>336601</v>
       </c>
       <c r="Q101" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>282151</v>
       </c>
     </row>
@@ -12289,62 +12337,62 @@
         <v>54</v>
       </c>
       <c r="C102" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1200</v>
       </c>
       <c r="D102" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>600</v>
       </c>
       <c r="E102" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>600</v>
       </c>
       <c r="F102" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="G102" s="4">
-        <f t="shared" ref="G102:H102" si="136">F102</f>
+        <f t="shared" ref="G102:H102" si="139">F102</f>
         <v>400</v>
       </c>
       <c r="H102" s="4">
-        <f t="shared" si="136"/>
+        <f t="shared" si="139"/>
         <v>400</v>
       </c>
       <c r="I102" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>300</v>
       </c>
       <c r="J102" s="15">
-        <f t="shared" ref="J102:L102" si="137">I102</f>
+        <f t="shared" ref="J102:L102" si="140">I102</f>
         <v>300</v>
       </c>
       <c r="K102" s="15">
-        <f t="shared" si="137"/>
+        <f t="shared" si="140"/>
         <v>300</v>
       </c>
       <c r="L102" s="15">
-        <f t="shared" si="137"/>
+        <f t="shared" si="140"/>
         <v>300</v>
       </c>
       <c r="M102" s="1">
         <v>1</v>
       </c>
       <c r="N102" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>67201</v>
       </c>
       <c r="O102" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>394201</v>
       </c>
       <c r="P102" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>343201</v>
       </c>
       <c r="Q102" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>287701</v>
       </c>
     </row>

--- a/40_Python/20231022_6Nimmt/模型参数.xlsx
+++ b/40_Python/20231022_6Nimmt/模型参数.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repo\Marvin_Haves_Fun_2309\40_Python\20231022_6Nimmt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C79B88-C6F3-4489-AFF7-B80EC24A0AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D370C1-16E7-43F7-B873-755E2914100C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1950" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模型参数" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="参数总量" sheetId="2" r:id="rId2"/>
+    <sheet name="学习曲线" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -196,6 +197,42 @@
   </si>
   <si>
     <t>model_12.pth</t>
+  </si>
+  <si>
+    <t>训练集</t>
+  </si>
+  <si>
+    <t>start_index</t>
+  </si>
+  <si>
+    <t>end_index</t>
+  </si>
+  <si>
+    <t>测试集</t>
+  </si>
+  <si>
+    <t>MSE-epoch2000</t>
+  </si>
+  <si>
+    <t>MSE-epoch1000</t>
+  </si>
+  <si>
+    <t>固定的</t>
+  </si>
+  <si>
+    <t>10000局游戏</t>
+  </si>
+  <si>
+    <t>epoch=20000，没啥用</t>
+  </si>
+  <si>
+    <t>训练误差</t>
+  </si>
+  <si>
+    <t>测试误差</t>
+  </si>
+  <si>
+    <t>MSE-测试</t>
   </si>
 </sst>
 </file>
@@ -520,7 +557,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -650,6 +687,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -695,7 +743,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -715,6 +763,9 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -828,7 +879,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$1</c:f>
+              <c:f>参数总量!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -851,7 +902,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$102</c:f>
+              <c:f>参数总量!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -1160,7 +1211,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$102</c:f>
+              <c:f>参数总量!$N$2:$N$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -1479,7 +1530,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$1</c:f>
+              <c:f>参数总量!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1502,7 +1553,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$102</c:f>
+              <c:f>参数总量!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -1811,7 +1862,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$102</c:f>
+              <c:f>参数总量!$O$2:$O$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -2130,7 +2181,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$1</c:f>
+              <c:f>参数总量!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2153,7 +2204,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$102</c:f>
+              <c:f>参数总量!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -2462,7 +2513,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$102</c:f>
+              <c:f>参数总量!$P$2:$P$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -2781,7 +2832,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$1</c:f>
+              <c:f>参数总量!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2804,7 +2855,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$102</c:f>
+              <c:f>参数总量!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -3113,7 +3164,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$102</c:f>
+              <c:f>参数总量!$Q$2:$Q$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -3629,6 +3680,573 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>学习曲线!$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE-epoch1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>学习曲线!$E$8:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>学习曲线!$H$8:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0088999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5238</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9344000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1806999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0553999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1404000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3973</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9AC3-4939-83D9-8F387C173630}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>学习曲线!$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE-epoch2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>学习曲线!$E$8:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>学习曲线!$I$8:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89849999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3536000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4685999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8096000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6467000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0137999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1745000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9AC3-4939-83D9-8F387C173630}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>学习曲线!$J$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE-测试</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>学习曲线!$E$8:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>学习曲线!$J$8:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>13.410245</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.055565</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.740119</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2213079999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7513350000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0742269999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2015120000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7499319999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7408459999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9AC3-4939-83D9-8F387C173630}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1649470736"/>
+        <c:axId val="340994928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1649470736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="340994928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="340994928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1649470736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3669,7 +4287,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4226,6 +5400,91 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>56468</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>17145</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD2C98D3-D77B-579D-1454-1C514407639C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2914650"/>
+          <a:ext cx="6714443" cy="3114675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>112394</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>141921</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E7251D-ED48-1B80-C7B2-2CDC1EBC061A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4526,7 +5785,7 @@
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4591,6 +5850,9 @@
       </c>
       <c r="Q1" s="10" t="s">
         <v>32</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -5438,13 +6700,13 @@
       <c r="N20" s="2">
         <v>45389</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="9">
         <v>4.0131730000000001</v>
       </c>
-      <c r="P20" s="8">
+      <c r="P20" s="21">
         <v>0.38844000000000001</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="Q20" s="21">
         <v>0.67800000000000005</v>
       </c>
     </row>
@@ -5456,6 +6718,15 @@
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
       <c r="N21" s="18"/>
+      <c r="O21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" s="21">
+        <v>0.39951999999999999</v>
+      </c>
+      <c r="Q21" s="21">
+        <v>0.64100000000000001</v>
+      </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -5615,7 +6886,7 @@
   <dimension ref="A1:Q102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N42" sqref="N42:Q102"/>
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12400,4 +13671,377 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EADD6BF-BAE1-4929-B3C4-C61A1CFF22B4}">
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1">
+        <v>54</v>
+      </c>
+      <c r="C2" s="4">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6">
+        <f t="shared" ref="H2" si="0">(B2+1)*C2+(C2+1)*G2</f>
+        <v>673</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K2" s="4">
+        <v>2001</v>
+      </c>
+      <c r="L2" s="1">
+        <v>8000</v>
+      </c>
+      <c r="M2" s="5">
+        <v>4</v>
+      </c>
+      <c r="N2" s="2">
+        <v>45389</v>
+      </c>
+      <c r="O2">
+        <v>4.0131730000000001</v>
+      </c>
+      <c r="P2" s="8">
+        <v>0.38844000000000001</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>0.67800000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>60000</v>
+      </c>
+      <c r="B8" s="19">
+        <v>61000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>100</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="J8" s="1">
+        <v>13.410245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>500</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
+        <v>1.0088999999999999</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.89849999999999997</v>
+      </c>
+      <c r="J9" s="1">
+        <v>12.055565</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <v>2.1187</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1.9575</v>
+      </c>
+      <c r="J10" s="1">
+        <v>6.740119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
+        <v>2.5238</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2.3536000000000001</v>
+      </c>
+      <c r="J11" s="1">
+        <v>5.2213079999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1">
+        <v>2.9344000000000001</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2.4685999999999999</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4.7513350000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>8000</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6">
+        <v>3.1806999999999999</v>
+      </c>
+      <c r="I13" s="6">
+        <v>2.8096000000000001</v>
+      </c>
+      <c r="J13" s="6">
+        <v>4.0742269999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>12000</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1">
+        <v>4.0553999999999997</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3.6467000000000001</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4.2015120000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>16000</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1">
+        <v>3.1404000000000001</v>
+      </c>
+      <c r="I15" s="1">
+        <v>3.0137999999999998</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3.7499319999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>20000</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1">
+        <v>3.3973</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3.1745000000000001</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3.7408459999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>